--- a/angular/src/assets/import/ImportGlobalIndicesSample.xlsx
+++ b/angular/src/assets/import/ImportGlobalIndicesSample.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Mitco\GB.Opera\angular\src\assets\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C041BA75-9387-421F-8F8A-2C7F00899B13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23874168-BD40-4E2D-AD9F-6ADB6E6412AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{72019A12-3955-4FC5-9318-9A7C9E925466}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Sot" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="prices" comment="prices">Prices!$D$1:$M$4</definedName>
+    <definedName name="prices" comment="prices">Prices!#REF!</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -28,8 +28,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,15 +35,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="238">
   <si>
     <t>StockMarket</t>
   </si>
   <si>
     <t>RIBL</t>
-  </si>
-  <si>
-    <t>TASI</t>
   </si>
   <si>
     <t>BJAZ</t>
@@ -745,23 +740,88 @@
   <si>
     <t>Close</t>
   </si>
+  <si>
+    <t>NIKKEI 225</t>
+  </si>
+  <si>
+    <t>Hang Seng</t>
+  </si>
+  <si>
+    <t>Shanghai Composite</t>
+  </si>
+  <si>
+    <t>BSE SENSEX</t>
+  </si>
+  <si>
+    <t>Seoul Composite</t>
+  </si>
+  <si>
+    <t>Straits Times</t>
+  </si>
+  <si>
+    <t>KLCI</t>
+  </si>
+  <si>
+    <t>FTSE 100</t>
+  </si>
+  <si>
+    <t>DAX</t>
+  </si>
+  <si>
+    <t>CAC 40</t>
+  </si>
+  <si>
+    <t>SMI</t>
+  </si>
+  <si>
+    <t>IGBM</t>
+  </si>
+  <si>
+    <t>190.41M</t>
+  </si>
+  <si>
+    <t>DJIA</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>VIX</t>
+  </si>
+  <si>
+    <t>NASDAQ</t>
+  </si>
+  <si>
+    <t>IPC</t>
+  </si>
+  <si>
+    <t>Bovespa</t>
+  </si>
+  <si>
+    <t>TSX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+  </numFmts>
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Tahoma"/>
     </font>
     <font>
-      <sz val="8"/>
-      <name val="Tahoma"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="8"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -794,19 +854,30 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color indexed="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="45"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -824,33 +895,32 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="1" fontId="4" fillId="0" borderId="0">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="5" fillId="0" borderId="0" applyAlignment="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="top"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="3" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -862,19 +932,30 @@
     <xf numFmtId="4" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="4" fontId="7" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="7" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="4" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="8" fillId="0" borderId="0" xfId="3" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="3" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="7">
+    <cellStyle name="Comma 2" xfId="4" xr:uid="{3AA72B4A-EB31-458A-B402-D835AD3969F3}"/>
+    <cellStyle name="Hyperlink 2" xfId="5" xr:uid="{940EB9EA-292F-4B6B-9E6C-555C2B197ABA}"/>
     <cellStyle name="MS_Arabic" xfId="1" xr:uid="{264D1B26-C3FC-4267-9BEE-8EBE5258C8ED}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="6" xr:uid="{578B1067-D946-4B61-BB8C-F544F137BDE2}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{70DA6001-6555-4A02-9E4D-C3469EF17976}"/>
     <cellStyle name="tas" xfId="2" xr:uid="{DCAB790B-4245-4BA5-AAFC-98DBB873DD07}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1177,124 +1258,483 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{40534392-1C63-4CED-BA67-C2936EDCADD6}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H6" sqref="A5:H6"/>
+      <selection pane="bottomLeft" activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.21875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.44140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="23.21875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="18.44140625" customWidth="1"/>
-    <col min="7" max="8" width="13.109375" customWidth="1"/>
-    <col min="9" max="9" width="14.5546875" customWidth="1"/>
-    <col min="10" max="10" width="20" customWidth="1"/>
-    <col min="11" max="11" width="14" customWidth="1"/>
-    <col min="12" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="3.44140625" customWidth="1"/>
+    <col min="1" max="1" width="48.109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="1"/>
+    <col min="4" max="5" width="8.88671875" style="1"/>
+    <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="D1" s="15" t="s">
+        <v>215</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>216</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>217</v>
+      </c>
+      <c r="G1" s="15" t="s">
         <v>213</v>
       </c>
-      <c r="C1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D1" t="s">
-        <v>216</v>
-      </c>
-      <c r="E1" t="s">
-        <v>217</v>
-      </c>
-      <c r="F1" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
         <v>218</v>
       </c>
-      <c r="G1" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="5">
-        <v>45631</v>
-      </c>
-      <c r="C2" s="4">
-        <v>8349351</v>
-      </c>
-      <c r="D2" s="4">
-        <v>14910</v>
-      </c>
-      <c r="E2" s="3">
-        <v>204494793.53</v>
-      </c>
-      <c r="F2" s="4">
-        <v>14910</v>
-      </c>
-      <c r="G2" s="4">
-        <v>25.47</v>
+      <c r="B2" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C2" s="12">
+        <v>39225.5</v>
+      </c>
+      <c r="D2" s="12">
+        <v>39581.47</v>
+      </c>
+      <c r="E2" s="12">
+        <v>39112.17</v>
+      </c>
+      <c r="F2" s="12">
+        <v>39461.47</v>
+      </c>
+      <c r="G2" s="13">
+        <v>130400000</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5">
-        <v>45631</v>
-      </c>
-      <c r="C3" s="4">
-        <v>1374911</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2652</v>
-      </c>
-      <c r="E3" s="3">
-        <v>29293909.640000001</v>
-      </c>
-      <c r="F3" s="4">
-        <v>2652</v>
-      </c>
-      <c r="G3" s="4">
-        <v>365.36500000000001</v>
+      <c r="A3" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="B3" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C3" s="12">
+        <v>21958.69</v>
+      </c>
+      <c r="D3" s="12">
+        <v>22523.57</v>
+      </c>
+      <c r="E3" s="12">
+        <v>21735.56</v>
+      </c>
+      <c r="F3" s="12">
+        <v>21814.37</v>
+      </c>
+      <c r="G3" s="13">
+        <v>6487200000</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="5">
-        <v>45631</v>
-      </c>
-      <c r="C4" s="4">
-        <v>52885</v>
-      </c>
-      <c r="D4" s="4">
-        <v>288</v>
-      </c>
-      <c r="E4" s="3">
-        <v>3308967.4</v>
-      </c>
-      <c r="F4" s="4">
-        <v>52885</v>
-      </c>
-      <c r="G4" s="4">
-        <v>25.36</v>
+      <c r="A4" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="B4" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C4" s="12">
+        <v>3343.24</v>
+      </c>
+      <c r="D4" s="12">
+        <v>3359.18</v>
+      </c>
+      <c r="E4" s="12">
+        <v>3332.48</v>
+      </c>
+      <c r="F4" s="12">
+        <v>3332.48</v>
+      </c>
+      <c r="G4" s="13">
+        <v>568600</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C5" s="12">
+        <v>76201.100000000006</v>
+      </c>
+      <c r="D5" s="12">
+        <v>76764.53</v>
+      </c>
+      <c r="E5" s="12">
+        <v>76013.429999999993</v>
+      </c>
+      <c r="F5" s="12">
+        <v>76138.97</v>
+      </c>
+      <c r="G5" s="13">
+        <v>6900</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C6" s="12">
+        <v>2558.9499999999998</v>
+      </c>
+      <c r="D6" s="12">
+        <v>2583.7399999999998</v>
+      </c>
+      <c r="E6" s="12">
+        <v>2555.98</v>
+      </c>
+      <c r="F6" s="12">
+        <v>2583.17</v>
+      </c>
+      <c r="G6" s="13">
+        <v>680300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="B7" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C7" s="12">
+        <v>3868.32</v>
+      </c>
+      <c r="D7" s="12">
+        <v>3882.58</v>
+      </c>
+      <c r="E7" s="12">
+        <v>3864.38</v>
+      </c>
+      <c r="F7" s="12">
+        <v>3882.58</v>
+      </c>
+      <c r="G7" s="13">
+        <v>328525300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>224</v>
+      </c>
+      <c r="B8" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C8" s="12">
+        <v>1601.98</v>
+      </c>
+      <c r="D8" s="12">
+        <v>1605.48</v>
+      </c>
+      <c r="E8" s="12">
+        <v>1592.2</v>
+      </c>
+      <c r="F8" s="12">
+        <v>1592.28</v>
+      </c>
+      <c r="G8" s="13">
+        <v>162305100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>225</v>
+      </c>
+      <c r="B9" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C9" s="12">
+        <v>8807.44</v>
+      </c>
+      <c r="D9" s="12">
+        <v>8820.93</v>
+      </c>
+      <c r="E9" s="12">
+        <v>8729.57</v>
+      </c>
+      <c r="F9" s="12">
+        <v>8764.7199999999993</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="B10" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C10" s="12">
+        <v>22410.58</v>
+      </c>
+      <c r="D10" s="12">
+        <v>22624.57</v>
+      </c>
+      <c r="E10" s="12">
+        <v>22306.33</v>
+      </c>
+      <c r="F10" s="12">
+        <v>22612.02</v>
+      </c>
+      <c r="G10" s="13">
+        <v>96482400</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="14" t="s">
+        <v>227</v>
+      </c>
+      <c r="B11" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C11" s="12">
+        <v>8120.81</v>
+      </c>
+      <c r="D11" s="12">
+        <v>8176.12</v>
+      </c>
+      <c r="E11" s="12">
+        <v>8091.42</v>
+      </c>
+      <c r="F11" s="12">
+        <v>8164.11</v>
+      </c>
+      <c r="G11" s="13">
+        <v>100733100</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C12" s="12">
+        <v>12827.84</v>
+      </c>
+      <c r="D12" s="12">
+        <v>12951.92</v>
+      </c>
+      <c r="E12" s="12">
+        <v>12789.59</v>
+      </c>
+      <c r="F12" s="12">
+        <v>12949.06</v>
+      </c>
+      <c r="G12" s="13">
+        <v>29964200</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="B13" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C13" s="12">
+        <v>1273.51</v>
+      </c>
+      <c r="D13" s="12">
+        <v>1274.1400000000001</v>
+      </c>
+      <c r="E13" s="12">
+        <v>1265.74</v>
+      </c>
+      <c r="F13" s="12">
+        <v>1270.8499999999999</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="14" t="s">
+        <v>231</v>
+      </c>
+      <c r="B14" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C14" s="12">
+        <v>44425.94</v>
+      </c>
+      <c r="D14" s="12">
+        <v>44768.26</v>
+      </c>
+      <c r="E14" s="12">
+        <v>44366.62</v>
+      </c>
+      <c r="F14" s="12">
+        <v>44711.43</v>
+      </c>
+      <c r="G14" s="13">
+        <v>513960000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B15" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C15" s="12">
+        <v>6060.59</v>
+      </c>
+      <c r="D15" s="12">
+        <v>6116.91</v>
+      </c>
+      <c r="E15" s="12">
+        <v>6050.95</v>
+      </c>
+      <c r="F15" s="12">
+        <v>6115.07</v>
+      </c>
+      <c r="G15" s="13">
+        <v>4763800000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>233</v>
+      </c>
+      <c r="B16" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C16" s="12">
+        <v>15.97</v>
+      </c>
+      <c r="D16" s="12">
+        <v>16.329999999999998</v>
+      </c>
+      <c r="E16" s="12">
+        <v>14.98</v>
+      </c>
+      <c r="F16" s="12">
+        <v>15.1</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C17" s="12">
+        <v>19696.919999999998</v>
+      </c>
+      <c r="D17" s="12">
+        <v>19952.169999999998</v>
+      </c>
+      <c r="E17" s="12">
+        <v>19675.87</v>
+      </c>
+      <c r="F17" s="12">
+        <v>19945.64</v>
+      </c>
+      <c r="G17" s="13">
+        <v>8414510000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="B18" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C18" s="12">
+        <v>54046.34</v>
+      </c>
+      <c r="D18" s="12">
+        <v>54440.37</v>
+      </c>
+      <c r="E18" s="12">
+        <v>53883.13</v>
+      </c>
+      <c r="F18" s="12">
+        <v>54160.11</v>
+      </c>
+      <c r="G18" s="13">
+        <v>205219300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>236</v>
+      </c>
+      <c r="B19" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C19" s="12">
+        <v>124372</v>
+      </c>
+      <c r="D19" s="12">
+        <v>124853</v>
+      </c>
+      <c r="E19" s="12">
+        <v>123778</v>
+      </c>
+      <c r="F19" s="12">
+        <v>124850</v>
+      </c>
+      <c r="G19" s="13">
+        <v>9048100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="B20" s="11">
+        <v>45701</v>
+      </c>
+      <c r="C20" s="12">
+        <v>25579.3</v>
+      </c>
+      <c r="D20" s="12">
+        <v>25713.3</v>
+      </c>
+      <c r="E20" s="12">
+        <v>25579.3</v>
+      </c>
+      <c r="F20" s="12">
+        <v>25698.5</v>
+      </c>
+      <c r="G20" s="13">
+        <v>203033900</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -1317,59 +1757,59 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="F1" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="G1" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="H1" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="I1" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>95</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C2" s="9">
+      <c r="B2" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" s="5">
         <v>120</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="5">
         <v>120</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="5">
         <v>119</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="5">
         <v>119.2</v>
       </c>
-      <c r="G2" s="10">
+      <c r="G2" s="6">
         <v>64389</v>
       </c>
-      <c r="H2" s="9">
+      <c r="H2" s="5">
         <v>591</v>
       </c>
-      <c r="I2" s="11">
+      <c r="I2" s="7">
         <v>7684205.2000000002</v>
       </c>
     </row>
@@ -1377,28 +1817,28 @@
       <c r="A3">
         <v>93</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="C3" s="9">
+      <c r="B3" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="5">
         <v>23.14</v>
       </c>
-      <c r="D3" s="9">
+      <c r="D3" s="5">
         <v>23.26</v>
       </c>
-      <c r="E3" s="9">
+      <c r="E3" s="5">
         <v>22.88</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="5">
         <v>22.98</v>
       </c>
-      <c r="G3" s="10">
+      <c r="G3" s="6">
         <v>573695</v>
       </c>
-      <c r="H3" s="10">
+      <c r="H3" s="6">
         <v>1019</v>
       </c>
-      <c r="I3" s="11">
+      <c r="I3" s="7">
         <v>13218883.619999999</v>
       </c>
     </row>
@@ -1406,28 +1846,28 @@
       <c r="A4">
         <v>39</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="C4" s="9">
+      <c r="B4" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C4" s="5">
         <v>29.3</v>
       </c>
-      <c r="D4" s="9">
+      <c r="D4" s="5">
         <v>29.55</v>
       </c>
-      <c r="E4" s="9">
+      <c r="E4" s="5">
         <v>29.15</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="5">
         <v>29.4</v>
       </c>
-      <c r="G4" s="10">
+      <c r="G4" s="6">
         <v>794836</v>
       </c>
-      <c r="H4" s="10">
+      <c r="H4" s="6">
         <v>1022</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="7">
         <v>23346908.199999999</v>
       </c>
     </row>
@@ -1435,28 +1875,28 @@
       <c r="A5">
         <v>149</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="C5" s="9">
+      <c r="B5" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C5" s="5">
         <v>23.9</v>
       </c>
-      <c r="D5" s="9">
+      <c r="D5" s="5">
         <v>24</v>
       </c>
-      <c r="E5" s="9">
+      <c r="E5" s="5">
         <v>23.72</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="5">
         <v>23.76</v>
       </c>
-      <c r="G5" s="10">
+      <c r="G5" s="6">
         <v>474962</v>
       </c>
-      <c r="H5" s="9">
+      <c r="H5" s="5">
         <v>616</v>
       </c>
-      <c r="I5" s="11">
+      <c r="I5" s="7">
         <v>11316707.619999999</v>
       </c>
     </row>
@@ -1464,28 +1904,28 @@
       <c r="A6">
         <v>30</v>
       </c>
-      <c r="B6" s="8" t="s">
-        <v>103</v>
-      </c>
-      <c r="C6" s="12">
+      <c r="B6" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C6" s="8">
         <v>53</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="8">
         <v>54</v>
       </c>
-      <c r="E6" s="12">
+      <c r="E6" s="8">
         <v>52.6</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="8">
         <v>53.9</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="9">
         <v>410406</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <v>994</v>
       </c>
-      <c r="I6" s="14">
+      <c r="I6" s="10">
         <v>21857410.300000001</v>
       </c>
     </row>
@@ -1493,28 +1933,28 @@
       <c r="A7">
         <v>150</v>
       </c>
-      <c r="B7" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" s="12">
+      <c r="B7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="8">
         <v>13.78</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="8">
         <v>14.36</v>
       </c>
-      <c r="E7" s="12">
+      <c r="E7" s="8">
         <v>13.64</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="8">
         <v>14.1</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="9">
         <v>1509953</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="9">
         <v>1042</v>
       </c>
-      <c r="I7" s="14">
+      <c r="I7" s="10">
         <v>21122180.059999999</v>
       </c>
     </row>
@@ -1522,28 +1962,28 @@
       <c r="A8">
         <v>179</v>
       </c>
-      <c r="B8" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="9">
+      <c r="B8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="5">
         <v>7.7</v>
       </c>
-      <c r="D8" s="9">
+      <c r="D8" s="5">
         <v>7.73</v>
       </c>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>7.66</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="5">
         <v>7.7</v>
       </c>
-      <c r="G8" s="10">
+      <c r="G8" s="6">
         <v>219570</v>
       </c>
-      <c r="H8" s="9">
+      <c r="H8" s="5">
         <v>185</v>
       </c>
-      <c r="I8" s="11">
+      <c r="I8" s="7">
         <v>1691675.55</v>
       </c>
     </row>
@@ -1551,28 +1991,28 @@
       <c r="A9">
         <v>185</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="C9" s="9">
+      <c r="B9" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="5">
         <v>8.9</v>
       </c>
-      <c r="D9" s="9">
+      <c r="D9" s="5">
         <v>9.08</v>
       </c>
-      <c r="E9" s="9">
+      <c r="E9" s="5">
         <v>8.9</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="5">
         <v>9.0299999999999994</v>
       </c>
-      <c r="G9" s="10">
+      <c r="G9" s="6">
         <v>915062</v>
       </c>
-      <c r="H9" s="9">
+      <c r="H9" s="5">
         <v>983</v>
       </c>
-      <c r="I9" s="11">
+      <c r="I9" s="7">
         <v>8249540.6200000001</v>
       </c>
     </row>
@@ -1580,28 +2020,28 @@
       <c r="A10">
         <v>71</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="C10" s="9">
+      <c r="B10" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="5">
         <v>11.44</v>
       </c>
-      <c r="D10" s="9">
+      <c r="D10" s="5">
         <v>11.5</v>
       </c>
-      <c r="E10" s="9">
+      <c r="E10" s="5">
         <v>11.22</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="5">
         <v>11.3</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="6">
         <v>813985</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="5">
         <v>680</v>
       </c>
-      <c r="I10" s="11">
+      <c r="I10" s="7">
         <v>9221029.6199999992</v>
       </c>
     </row>
@@ -1609,28 +2049,28 @@
       <c r="A11">
         <v>183</v>
       </c>
-      <c r="B11" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="C11" s="9">
+      <c r="B11" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="5">
         <v>9.34</v>
       </c>
-      <c r="D11" s="9">
+      <c r="D11" s="5">
         <v>9.34</v>
       </c>
-      <c r="E11" s="9">
+      <c r="E11" s="5">
         <v>9.15</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="5">
         <v>9.15</v>
       </c>
-      <c r="G11" s="10">
+      <c r="G11" s="6">
         <v>211719</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="5">
         <v>126</v>
       </c>
-      <c r="I11" s="11">
+      <c r="I11" s="7">
         <v>1974823.88</v>
       </c>
     </row>
@@ -1638,28 +2078,28 @@
       <c r="A12">
         <v>148</v>
       </c>
-      <c r="B12" s="8" t="s">
-        <v>107</v>
-      </c>
-      <c r="C12" s="12">
+      <c r="B12" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="8">
         <v>10.4</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="8">
         <v>10.4</v>
       </c>
-      <c r="E12" s="12">
+      <c r="E12" s="8">
         <v>10.06</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="8">
         <v>10.18</v>
       </c>
-      <c r="G12" s="13">
+      <c r="G12" s="9">
         <v>1005933</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <v>896</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="10">
         <v>10236203.1</v>
       </c>
     </row>
@@ -1667,28 +2107,28 @@
       <c r="A13">
         <v>161</v>
       </c>
-      <c r="B13" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C13" s="9">
+      <c r="B13" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="5">
         <v>18.22</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="5">
         <v>18.32</v>
       </c>
-      <c r="E13" s="9">
+      <c r="E13" s="5">
         <v>18.02</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="5">
         <v>18.32</v>
       </c>
-      <c r="G13" s="10">
+      <c r="G13" s="6">
         <v>512989</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="5">
         <v>447</v>
       </c>
-      <c r="I13" s="11">
+      <c r="I13" s="7">
         <v>9344319</v>
       </c>
     </row>
@@ -1696,28 +2136,28 @@
       <c r="A14">
         <v>201</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C14" s="9">
+      <c r="B14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C14" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="D14" s="9">
+      <c r="D14" s="5">
         <v>16.100000000000001</v>
       </c>
-      <c r="E14" s="9">
+      <c r="E14" s="5">
         <v>15.9</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="5">
         <v>15.9</v>
       </c>
-      <c r="G14" s="10">
+      <c r="G14" s="6">
         <v>404536</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="5">
         <v>597</v>
       </c>
-      <c r="I14" s="11">
+      <c r="I14" s="7">
         <v>6464487.3799999999</v>
       </c>
     </row>
@@ -1725,28 +2165,28 @@
       <c r="A15">
         <v>73</v>
       </c>
-      <c r="B15" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="C15" s="9">
+      <c r="B15" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="C15" s="5">
         <v>56.7</v>
       </c>
-      <c r="D15" s="9">
+      <c r="D15" s="5">
         <v>57.1</v>
       </c>
-      <c r="E15" s="9">
+      <c r="E15" s="5">
         <v>56</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="5">
         <v>56.4</v>
       </c>
-      <c r="G15" s="10">
+      <c r="G15" s="6">
         <v>180417</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="5">
         <v>497</v>
       </c>
-      <c r="I15" s="11">
+      <c r="I15" s="7">
         <v>10162173.1</v>
       </c>
     </row>
@@ -1754,28 +2194,28 @@
       <c r="A16">
         <v>56</v>
       </c>
-      <c r="B16" s="8" t="s">
-        <v>108</v>
-      </c>
-      <c r="C16" s="12">
+      <c r="B16" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C16" s="8">
         <v>24.72</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="8">
         <v>25.95</v>
       </c>
-      <c r="E16" s="12">
+      <c r="E16" s="8">
         <v>24.72</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="8">
         <v>25.65</v>
       </c>
-      <c r="G16" s="13">
+      <c r="G16" s="9">
         <v>1403193</v>
       </c>
-      <c r="H16" s="13">
+      <c r="H16" s="9">
         <v>2010</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="10">
         <v>35489379.079999998</v>
       </c>
     </row>
@@ -1783,28 +2223,28 @@
       <c r="A17">
         <v>133</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="C17" s="9">
+      <c r="B17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C17" s="5">
         <v>17.64</v>
       </c>
-      <c r="D17" s="9">
+      <c r="D17" s="5">
         <v>18.54</v>
       </c>
-      <c r="E17" s="9">
+      <c r="E17" s="5">
         <v>17.600000000000001</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="5">
         <v>17.98</v>
       </c>
-      <c r="G17" s="10">
+      <c r="G17" s="6">
         <v>3668120</v>
       </c>
-      <c r="H17" s="10">
+      <c r="H17" s="6">
         <v>3564</v>
       </c>
-      <c r="I17" s="11">
+      <c r="I17" s="7">
         <v>66499619.280000001</v>
       </c>
     </row>
@@ -1812,28 +2252,28 @@
       <c r="A18">
         <v>127</v>
       </c>
-      <c r="B18" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C18" s="9">
+      <c r="B18" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C18" s="5">
         <v>24.48</v>
       </c>
-      <c r="D18" s="9">
+      <c r="D18" s="5">
         <v>24.7</v>
       </c>
-      <c r="E18" s="9">
+      <c r="E18" s="5">
         <v>24.24</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="5">
         <v>24.54</v>
       </c>
-      <c r="G18" s="10">
+      <c r="G18" s="6">
         <v>1630430</v>
       </c>
-      <c r="H18" s="10">
+      <c r="H18" s="6">
         <v>1608</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="7">
         <v>39919252.899999999</v>
       </c>
     </row>
@@ -1841,28 +2281,28 @@
       <c r="A19">
         <v>5</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="C19" s="9">
+      <c r="B19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="5">
         <v>62.1</v>
       </c>
-      <c r="D19" s="9">
+      <c r="D19" s="5">
         <v>63.6</v>
       </c>
-      <c r="E19" s="9">
+      <c r="E19" s="5">
         <v>61.4</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="5">
         <v>63.6</v>
       </c>
-      <c r="G19" s="10">
+      <c r="G19" s="6">
         <v>456405</v>
       </c>
-      <c r="H19" s="10">
+      <c r="H19" s="6">
         <v>1475</v>
       </c>
-      <c r="I19" s="11">
+      <c r="I19" s="7">
         <v>28574525</v>
       </c>
     </row>
@@ -1870,28 +2310,28 @@
       <c r="A20">
         <v>151</v>
       </c>
-      <c r="B20" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="C20" s="9">
+      <c r="B20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C20" s="5">
         <v>16.559999999999999</v>
       </c>
-      <c r="D20" s="9">
+      <c r="D20" s="5">
         <v>17.100000000000001</v>
       </c>
-      <c r="E20" s="9">
+      <c r="E20" s="5">
         <v>16.38</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="5">
         <v>17.059999999999999</v>
       </c>
-      <c r="G20" s="10">
+      <c r="G20" s="6">
         <v>428030</v>
       </c>
-      <c r="H20" s="9">
+      <c r="H20" s="5">
         <v>425</v>
       </c>
-      <c r="I20" s="11">
+      <c r="I20" s="7">
         <v>7155215.5800000001</v>
       </c>
     </row>
@@ -1899,28 +2339,28 @@
       <c r="A21">
         <v>115</v>
       </c>
-      <c r="B21" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="C21" s="9">
+      <c r="B21" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="5">
         <v>26.6</v>
       </c>
-      <c r="D21" s="9">
+      <c r="D21" s="5">
         <v>26.95</v>
       </c>
-      <c r="E21" s="9">
+      <c r="E21" s="5">
         <v>26</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="5">
         <v>26.4</v>
       </c>
-      <c r="G21" s="10">
+      <c r="G21" s="6">
         <v>1124832</v>
       </c>
-      <c r="H21" s="10">
+      <c r="H21" s="6">
         <v>2270</v>
       </c>
-      <c r="I21" s="11">
+      <c r="I21" s="7">
         <v>29639472.75</v>
       </c>
     </row>
@@ -1928,28 +2368,28 @@
       <c r="A22">
         <v>94</v>
       </c>
-      <c r="B22" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="12">
+      <c r="B22" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C22" s="8">
         <v>20.88</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="8">
         <v>20.9</v>
       </c>
-      <c r="E22" s="12">
+      <c r="E22" s="8">
         <v>20.48</v>
       </c>
-      <c r="F22" s="12">
+      <c r="F22" s="8">
         <v>20.66</v>
       </c>
-      <c r="G22" s="13">
+      <c r="G22" s="9">
         <v>851320</v>
       </c>
-      <c r="H22" s="13">
+      <c r="H22" s="9">
         <v>1307</v>
       </c>
-      <c r="I22" s="14">
+      <c r="I22" s="10">
         <v>17584862.66</v>
       </c>
     </row>
@@ -1957,28 +2397,28 @@
       <c r="A23">
         <v>76</v>
       </c>
-      <c r="B23" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23" s="12">
+      <c r="B23" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="C23" s="8">
         <v>15.5</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="8">
         <v>15.98</v>
       </c>
-      <c r="E23" s="12">
+      <c r="E23" s="8">
         <v>15.44</v>
       </c>
-      <c r="F23" s="12">
+      <c r="F23" s="8">
         <v>15.64</v>
       </c>
-      <c r="G23" s="13">
+      <c r="G23" s="9">
         <v>1289265</v>
       </c>
-      <c r="H23" s="13">
+      <c r="H23" s="9">
         <v>1415</v>
       </c>
-      <c r="I23" s="14">
+      <c r="I23" s="10">
         <v>20322618</v>
       </c>
     </row>
@@ -1986,28 +2426,28 @@
       <c r="A24">
         <v>128</v>
       </c>
-      <c r="B24" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="12">
+      <c r="B24" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" s="8">
         <v>15.12</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="8">
         <v>15.18</v>
       </c>
-      <c r="E24" s="12">
+      <c r="E24" s="8">
         <v>14.98</v>
       </c>
-      <c r="F24" s="12">
+      <c r="F24" s="8">
         <v>15.06</v>
       </c>
-      <c r="G24" s="13">
+      <c r="G24" s="9">
         <v>16071935</v>
       </c>
-      <c r="H24" s="13">
+      <c r="H24" s="9">
         <v>6429</v>
       </c>
-      <c r="I24" s="14">
+      <c r="I24" s="10">
         <v>242236659.66</v>
       </c>
     </row>
@@ -2015,28 +2455,28 @@
       <c r="A25">
         <v>166</v>
       </c>
-      <c r="B25" s="8" t="s">
-        <v>113</v>
-      </c>
-      <c r="C25" s="12">
+      <c r="B25" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="C25" s="8">
         <v>14.04</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="8">
         <v>15.04</v>
       </c>
-      <c r="E25" s="12">
+      <c r="E25" s="8">
         <v>14.04</v>
       </c>
-      <c r="F25" s="12">
+      <c r="F25" s="8">
         <v>14.5</v>
       </c>
-      <c r="G25" s="13">
+      <c r="G25" s="9">
         <v>4943951</v>
       </c>
-      <c r="H25" s="13">
+      <c r="H25" s="9">
         <v>4774</v>
       </c>
-      <c r="I25" s="14">
+      <c r="I25" s="10">
         <v>72077562.120000005</v>
       </c>
     </row>
@@ -2044,28 +2484,28 @@
       <c r="A26">
         <v>176</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>114</v>
-      </c>
-      <c r="C26" s="12">
+      <c r="B26" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="C26" s="8">
         <v>14.22</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="8">
         <v>14.6</v>
       </c>
-      <c r="E26" s="12">
+      <c r="E26" s="8">
         <v>14.18</v>
       </c>
-      <c r="F26" s="12">
+      <c r="F26" s="8">
         <v>14.38</v>
       </c>
-      <c r="G26" s="13">
+      <c r="G26" s="9">
         <v>888339</v>
       </c>
-      <c r="H26" s="12">
+      <c r="H26" s="8">
         <v>565</v>
       </c>
-      <c r="I26" s="14">
+      <c r="I26" s="10">
         <v>12755736.76</v>
       </c>
     </row>
@@ -2073,28 +2513,28 @@
       <c r="A27">
         <v>109</v>
       </c>
-      <c r="B27" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="C27" s="9">
+      <c r="B27" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="C27" s="5">
         <v>31.3</v>
       </c>
-      <c r="D27" s="9">
+      <c r="D27" s="5">
         <v>31.85</v>
       </c>
-      <c r="E27" s="9">
+      <c r="E27" s="5">
         <v>30.85</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="5">
         <v>31.7</v>
       </c>
-      <c r="G27" s="10">
+      <c r="G27" s="6">
         <v>1327308</v>
       </c>
-      <c r="H27" s="10">
+      <c r="H27" s="6">
         <v>2189</v>
       </c>
-      <c r="I27" s="11">
+      <c r="I27" s="7">
         <v>41797184.25</v>
       </c>
     </row>
@@ -2102,28 +2542,28 @@
       <c r="A28">
         <v>38</v>
       </c>
-      <c r="B28" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="12">
+      <c r="B28" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="C28" s="8">
         <v>110.8</v>
       </c>
-      <c r="D28" s="12">
+      <c r="D28" s="8">
         <v>110.8</v>
       </c>
-      <c r="E28" s="12">
+      <c r="E28" s="8">
         <v>109.6</v>
       </c>
-      <c r="F28" s="12">
+      <c r="F28" s="8">
         <v>109.6</v>
       </c>
-      <c r="G28" s="13">
+      <c r="G28" s="9">
         <v>88037</v>
       </c>
-      <c r="H28" s="12">
+      <c r="H28" s="8">
         <v>484</v>
       </c>
-      <c r="I28" s="14">
+      <c r="I28" s="10">
         <v>9695302.4000000004</v>
       </c>
     </row>
@@ -2131,28 +2571,28 @@
       <c r="A29">
         <v>191</v>
       </c>
-      <c r="B29" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="C29" s="9">
+      <c r="B29" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="5">
         <v>8.41</v>
       </c>
-      <c r="D29" s="9">
+      <c r="D29" s="5">
         <v>8.6</v>
       </c>
-      <c r="E29" s="9">
+      <c r="E29" s="5">
         <v>8.3800000000000008</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="5">
         <v>8.5</v>
       </c>
-      <c r="G29" s="10">
+      <c r="G29" s="6">
         <v>534879</v>
       </c>
-      <c r="H29" s="9">
+      <c r="H29" s="5">
         <v>457</v>
       </c>
-      <c r="I29" s="11">
+      <c r="I29" s="7">
         <v>4526280.59</v>
       </c>
     </row>
@@ -2160,28 +2600,28 @@
       <c r="A30">
         <v>80</v>
       </c>
-      <c r="B30" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="C30" s="12">
+      <c r="B30" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="8">
         <v>15.4</v>
       </c>
-      <c r="D30" s="12">
+      <c r="D30" s="8">
         <v>15.66</v>
       </c>
-      <c r="E30" s="12">
+      <c r="E30" s="8">
         <v>15.3</v>
       </c>
-      <c r="F30" s="12">
+      <c r="F30" s="8">
         <v>15.52</v>
       </c>
-      <c r="G30" s="13">
+      <c r="G30" s="9">
         <v>1033142</v>
       </c>
-      <c r="H30" s="12">
+      <c r="H30" s="8">
         <v>618</v>
       </c>
-      <c r="I30" s="14">
+      <c r="I30" s="10">
         <v>15952868.800000001</v>
       </c>
     </row>
@@ -2189,28 +2629,28 @@
       <c r="A31">
         <v>51</v>
       </c>
-      <c r="B31" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="C31" s="9">
+      <c r="B31" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="5">
         <v>0</v>
       </c>
-      <c r="D31" s="9">
+      <c r="D31" s="5">
         <v>0</v>
       </c>
-      <c r="E31" s="9">
+      <c r="E31" s="5">
         <v>0</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="5">
         <v>5.39</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="5">
         <v>0</v>
       </c>
-      <c r="H31" s="9">
+      <c r="H31" s="5">
         <v>0</v>
       </c>
-      <c r="I31" s="9">
+      <c r="I31" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2218,28 +2658,28 @@
       <c r="A32">
         <v>139</v>
       </c>
-      <c r="B32" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="C32" s="9">
+      <c r="B32" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C32" s="5">
         <v>17.82</v>
       </c>
-      <c r="D32" s="9">
+      <c r="D32" s="5">
         <v>17.86</v>
       </c>
-      <c r="E32" s="9">
+      <c r="E32" s="5">
         <v>17.5</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="5">
         <v>17.760000000000002</v>
       </c>
-      <c r="G32" s="10">
+      <c r="G32" s="6">
         <v>706314</v>
       </c>
-      <c r="H32" s="9">
+      <c r="H32" s="5">
         <v>741</v>
       </c>
-      <c r="I32" s="11">
+      <c r="I32" s="7">
         <v>12489177.800000001</v>
       </c>
     </row>
@@ -2247,28 +2687,28 @@
       <c r="A33">
         <v>102</v>
       </c>
-      <c r="B33" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="C33" s="12">
+      <c r="B33" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="8">
         <v>53.8</v>
       </c>
-      <c r="D33" s="12">
+      <c r="D33" s="8">
         <v>54</v>
       </c>
-      <c r="E33" s="12">
+      <c r="E33" s="8">
         <v>53.4</v>
       </c>
-      <c r="F33" s="12">
+      <c r="F33" s="8">
         <v>53.6</v>
       </c>
-      <c r="G33" s="13">
+      <c r="G33" s="9">
         <v>356722</v>
       </c>
-      <c r="H33" s="12">
+      <c r="H33" s="8">
         <v>813</v>
       </c>
-      <c r="I33" s="14">
+      <c r="I33" s="10">
         <v>19156110.5</v>
       </c>
     </row>
@@ -2276,28 +2716,28 @@
       <c r="A34">
         <v>202</v>
       </c>
-      <c r="B34" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C34" s="12">
+      <c r="B34" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="C34" s="8">
         <v>25.9</v>
       </c>
-      <c r="D34" s="12">
+      <c r="D34" s="8">
         <v>26.25</v>
       </c>
-      <c r="E34" s="12">
+      <c r="E34" s="8">
         <v>25.1</v>
       </c>
-      <c r="F34" s="12">
+      <c r="F34" s="8">
         <v>25.5</v>
       </c>
-      <c r="G34" s="13">
+      <c r="G34" s="9">
         <v>2465267</v>
       </c>
-      <c r="H34" s="13">
+      <c r="H34" s="9">
         <v>3518</v>
       </c>
-      <c r="I34" s="14">
+      <c r="I34" s="10">
         <v>62803662.100000001</v>
       </c>
     </row>
@@ -2305,28 +2745,28 @@
       <c r="A35">
         <v>60</v>
       </c>
-      <c r="B35" s="8" t="s">
-        <v>97</v>
-      </c>
-      <c r="C35" s="12">
+      <c r="B35" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C35" s="8">
         <v>70.7</v>
       </c>
-      <c r="D35" s="12">
+      <c r="D35" s="8">
         <v>73.5</v>
       </c>
-      <c r="E35" s="12">
+      <c r="E35" s="8">
         <v>70.599999999999994</v>
       </c>
-      <c r="F35" s="12">
+      <c r="F35" s="8">
         <v>72.599999999999994</v>
       </c>
-      <c r="G35" s="13">
+      <c r="G35" s="9">
         <v>1650265</v>
       </c>
-      <c r="H35" s="13">
+      <c r="H35" s="9">
         <v>4078</v>
       </c>
-      <c r="I35" s="14">
+      <c r="I35" s="10">
         <v>119482574.40000001</v>
       </c>
     </row>
@@ -2334,28 +2774,28 @@
       <c r="A36">
         <v>126</v>
       </c>
-      <c r="B36" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C36" s="12">
+      <c r="B36" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="C36" s="8">
         <v>62</v>
       </c>
-      <c r="D36" s="12">
+      <c r="D36" s="8">
         <v>62.7</v>
       </c>
-      <c r="E36" s="12">
+      <c r="E36" s="8">
         <v>61.8</v>
       </c>
-      <c r="F36" s="12">
+      <c r="F36" s="8">
         <v>62.5</v>
       </c>
-      <c r="G36" s="13">
+      <c r="G36" s="9">
         <v>6477611</v>
       </c>
-      <c r="H36" s="13">
+      <c r="H36" s="9">
         <v>6027</v>
       </c>
-      <c r="I36" s="14">
+      <c r="I36" s="10">
         <v>403695867.89999998</v>
       </c>
     </row>
@@ -2363,28 +2803,28 @@
       <c r="A37">
         <v>156</v>
       </c>
-      <c r="B37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="C37" s="12">
+      <c r="B37" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C37" s="8">
         <v>74.900000000000006</v>
       </c>
-      <c r="D37" s="12">
+      <c r="D37" s="8">
         <v>75.7</v>
       </c>
-      <c r="E37" s="12">
+      <c r="E37" s="8">
         <v>73.8</v>
       </c>
-      <c r="F37" s="12">
+      <c r="F37" s="8">
         <v>74.2</v>
       </c>
-      <c r="G37" s="13">
+      <c r="G37" s="9">
         <v>266245</v>
       </c>
-      <c r="H37" s="12">
+      <c r="H37" s="8">
         <v>807</v>
       </c>
-      <c r="I37" s="14">
+      <c r="I37" s="10">
         <v>19825541</v>
       </c>
     </row>
@@ -2392,28 +2832,28 @@
       <c r="A38">
         <v>152</v>
       </c>
-      <c r="B38" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="C38" s="12">
+      <c r="B38" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="8">
         <v>10.02</v>
       </c>
-      <c r="D38" s="12">
+      <c r="D38" s="8">
         <v>10.02</v>
       </c>
-      <c r="E38" s="12">
+      <c r="E38" s="8">
         <v>9.8699999999999992</v>
       </c>
-      <c r="F38" s="12">
+      <c r="F38" s="8">
         <v>9.9499999999999993</v>
       </c>
-      <c r="G38" s="13">
+      <c r="G38" s="9">
         <v>638784</v>
       </c>
-      <c r="H38" s="12">
+      <c r="H38" s="8">
         <v>619</v>
       </c>
-      <c r="I38" s="14">
+      <c r="I38" s="10">
         <v>6352095.3700000001</v>
       </c>
     </row>
@@ -2421,28 +2861,28 @@
       <c r="A39">
         <v>20</v>
       </c>
-      <c r="B39" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="C39" s="12">
+      <c r="B39" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="C39" s="8">
         <v>0</v>
       </c>
-      <c r="D39" s="12">
+      <c r="D39" s="8">
         <v>0</v>
       </c>
-      <c r="E39" s="12">
+      <c r="E39" s="8">
         <v>0</v>
       </c>
-      <c r="F39" s="12">
+      <c r="F39" s="8">
         <v>26.7</v>
       </c>
-      <c r="G39" s="12">
+      <c r="G39" s="8">
         <v>0</v>
       </c>
-      <c r="H39" s="12">
+      <c r="H39" s="8">
         <v>0</v>
       </c>
-      <c r="I39" s="12">
+      <c r="I39" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2450,28 +2890,28 @@
       <c r="A40">
         <v>11</v>
       </c>
-      <c r="B40" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="C40" s="9">
+      <c r="B40" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C40" s="5">
         <v>19.100000000000001</v>
       </c>
-      <c r="D40" s="9">
+      <c r="D40" s="5">
         <v>19.16</v>
       </c>
-      <c r="E40" s="9">
+      <c r="E40" s="5">
         <v>18.88</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="5">
         <v>19.04</v>
       </c>
-      <c r="G40" s="10">
+      <c r="G40" s="6">
         <v>484287</v>
       </c>
-      <c r="H40" s="9">
+      <c r="H40" s="5">
         <v>669</v>
       </c>
-      <c r="I40" s="11">
+      <c r="I40" s="7">
         <v>9116466.0600000005</v>
       </c>
     </row>
@@ -2479,28 +2919,28 @@
       <c r="A41">
         <v>164</v>
       </c>
-      <c r="B41" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="C41" s="12">
+      <c r="B41" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="C41" s="8">
         <v>13.18</v>
       </c>
-      <c r="D41" s="12">
+      <c r="D41" s="8">
         <v>13.22</v>
       </c>
-      <c r="E41" s="12">
+      <c r="E41" s="8">
         <v>13</v>
       </c>
-      <c r="F41" s="12">
+      <c r="F41" s="8">
         <v>13.16</v>
       </c>
-      <c r="G41" s="13">
+      <c r="G41" s="9">
         <v>1134851</v>
       </c>
-      <c r="H41" s="12">
+      <c r="H41" s="8">
         <v>956</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="10">
         <v>14874926.939999999</v>
       </c>
     </row>
@@ -2508,28 +2948,28 @@
       <c r="A42">
         <v>55</v>
       </c>
-      <c r="B42" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="9">
+      <c r="B42" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="5">
         <v>11.5</v>
       </c>
-      <c r="D42" s="9">
+      <c r="D42" s="5">
         <v>11.66</v>
       </c>
-      <c r="E42" s="9">
+      <c r="E42" s="5">
         <v>11.46</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="5">
         <v>11.52</v>
       </c>
-      <c r="G42" s="10">
+      <c r="G42" s="6">
         <v>2337549</v>
       </c>
-      <c r="H42" s="10">
+      <c r="H42" s="6">
         <v>1619</v>
       </c>
-      <c r="I42" s="11">
+      <c r="I42" s="7">
         <v>27019549.02</v>
       </c>
     </row>
@@ -2537,28 +2977,28 @@
       <c r="A43">
         <v>130</v>
       </c>
-      <c r="B43" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="C43" s="12">
+      <c r="B43" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C43" s="8">
         <v>22.6</v>
       </c>
-      <c r="D43" s="12">
+      <c r="D43" s="8">
         <v>22.7</v>
       </c>
-      <c r="E43" s="12">
+      <c r="E43" s="8">
         <v>22.14</v>
       </c>
-      <c r="F43" s="12">
+      <c r="F43" s="8">
         <v>22.28</v>
       </c>
-      <c r="G43" s="13">
+      <c r="G43" s="9">
         <v>4267639</v>
       </c>
-      <c r="H43" s="13">
+      <c r="H43" s="9">
         <v>5008</v>
       </c>
-      <c r="I43" s="14">
+      <c r="I43" s="10">
         <v>95729488.939999998</v>
       </c>
     </row>
@@ -2566,28 +3006,28 @@
       <c r="A44">
         <v>97</v>
       </c>
-      <c r="B44" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="9">
+      <c r="B44" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C44" s="5">
         <v>188</v>
       </c>
-      <c r="D44" s="9">
+      <c r="D44" s="5">
         <v>190</v>
       </c>
-      <c r="E44" s="9">
+      <c r="E44" s="5">
         <v>187</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="5">
         <v>188</v>
       </c>
-      <c r="G44" s="10">
+      <c r="G44" s="6">
         <v>55104</v>
       </c>
-      <c r="H44" s="9">
+      <c r="H44" s="5">
         <v>591</v>
       </c>
-      <c r="I44" s="11">
+      <c r="I44" s="7">
         <v>10382890.4</v>
       </c>
     </row>
@@ -2595,28 +3035,28 @@
       <c r="A45">
         <v>124</v>
       </c>
-      <c r="B45" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="12">
+      <c r="B45" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C45" s="8">
         <v>19.36</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="8">
         <v>19.46</v>
       </c>
-      <c r="E45" s="12">
+      <c r="E45" s="8">
         <v>19.3</v>
       </c>
-      <c r="F45" s="12">
+      <c r="F45" s="8">
         <v>19.32</v>
       </c>
-      <c r="G45" s="13">
+      <c r="G45" s="9">
         <v>519876</v>
       </c>
-      <c r="H45" s="12">
+      <c r="H45" s="8">
         <v>684</v>
       </c>
-      <c r="I45" s="14">
+      <c r="I45" s="10">
         <v>10084781.039999999</v>
       </c>
     </row>
@@ -2624,28 +3064,28 @@
       <c r="A46">
         <v>22</v>
       </c>
-      <c r="B46" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="C46" s="12">
+      <c r="B46" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C46" s="8">
         <v>12.86</v>
       </c>
-      <c r="D46" s="12">
+      <c r="D46" s="8">
         <v>12.96</v>
       </c>
-      <c r="E46" s="12">
+      <c r="E46" s="8">
         <v>12.78</v>
       </c>
-      <c r="F46" s="12">
+      <c r="F46" s="8">
         <v>12.88</v>
       </c>
-      <c r="G46" s="13">
+      <c r="G46" s="9">
         <v>2680957</v>
       </c>
-      <c r="H46" s="13">
+      <c r="H46" s="9">
         <v>1516</v>
       </c>
-      <c r="I46" s="14">
+      <c r="I46" s="10">
         <v>34512459.380000003</v>
       </c>
     </row>
@@ -2653,28 +3093,28 @@
       <c r="A47">
         <v>168</v>
       </c>
-      <c r="B47" s="8" t="s">
-        <v>129</v>
-      </c>
-      <c r="C47" s="12">
+      <c r="B47" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="C47" s="8">
         <v>57.3</v>
       </c>
-      <c r="D47" s="12">
+      <c r="D47" s="8">
         <v>58</v>
       </c>
-      <c r="E47" s="12">
+      <c r="E47" s="8">
         <v>56.6</v>
       </c>
-      <c r="F47" s="12">
+      <c r="F47" s="8">
         <v>56.9</v>
       </c>
-      <c r="G47" s="13">
+      <c r="G47" s="9">
         <v>1274439</v>
       </c>
-      <c r="H47" s="13">
+      <c r="H47" s="9">
         <v>3133</v>
       </c>
-      <c r="I47" s="14">
+      <c r="I47" s="10">
         <v>72986031.799999997</v>
       </c>
     </row>
@@ -2682,28 +3122,28 @@
       <c r="A48">
         <v>142</v>
       </c>
-      <c r="B48" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="12">
+      <c r="B48" s="4" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="8">
         <v>17.88</v>
       </c>
-      <c r="D48" s="12">
+      <c r="D48" s="8">
         <v>17.899999999999999</v>
       </c>
-      <c r="E48" s="12">
+      <c r="E48" s="8">
         <v>17.5</v>
       </c>
-      <c r="F48" s="12">
+      <c r="F48" s="8">
         <v>17.760000000000002</v>
       </c>
-      <c r="G48" s="13">
+      <c r="G48" s="9">
         <v>437002</v>
       </c>
-      <c r="H48" s="12">
+      <c r="H48" s="8">
         <v>581</v>
       </c>
-      <c r="I48" s="14">
+      <c r="I48" s="10">
         <v>7765710.2999999998</v>
       </c>
     </row>
@@ -2711,28 +3151,28 @@
       <c r="A49">
         <v>195</v>
       </c>
-      <c r="B49" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="C49" s="9">
+      <c r="B49" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C49" s="5">
         <v>15.7</v>
       </c>
-      <c r="D49" s="9">
+      <c r="D49" s="5">
         <v>15.7</v>
       </c>
-      <c r="E49" s="9">
+      <c r="E49" s="5">
         <v>15.52</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="5">
         <v>15.64</v>
       </c>
-      <c r="G49" s="10">
+      <c r="G49" s="6">
         <v>894017</v>
       </c>
-      <c r="H49" s="9">
+      <c r="H49" s="5">
         <v>904</v>
       </c>
-      <c r="I49" s="11">
+      <c r="I49" s="7">
         <v>13973389.859999999</v>
       </c>
     </row>
@@ -2740,28 +3180,28 @@
       <c r="A50">
         <v>132</v>
       </c>
-      <c r="B50" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="C50" s="12">
+      <c r="B50" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="C50" s="8">
         <v>11.62</v>
       </c>
-      <c r="D50" s="12">
+      <c r="D50" s="8">
         <v>11.64</v>
       </c>
-      <c r="E50" s="12">
+      <c r="E50" s="8">
         <v>11.42</v>
       </c>
-      <c r="F50" s="12">
+      <c r="F50" s="8">
         <v>11.52</v>
       </c>
-      <c r="G50" s="13">
+      <c r="G50" s="9">
         <v>878742</v>
       </c>
-      <c r="H50" s="13">
+      <c r="H50" s="9">
         <v>1000</v>
       </c>
-      <c r="I50" s="14">
+      <c r="I50" s="10">
         <v>10136641.92</v>
       </c>
     </row>
@@ -2769,28 +3209,28 @@
       <c r="A51">
         <v>10</v>
       </c>
-      <c r="B51" s="8" t="s">
-        <v>63</v>
-      </c>
-      <c r="C51" s="12">
+      <c r="B51" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="8">
         <v>22.86</v>
       </c>
-      <c r="D51" s="12">
+      <c r="D51" s="8">
         <v>23.12</v>
       </c>
-      <c r="E51" s="12">
+      <c r="E51" s="8">
         <v>22.8</v>
       </c>
-      <c r="F51" s="12">
+      <c r="F51" s="8">
         <v>22.98</v>
       </c>
-      <c r="G51" s="13">
+      <c r="G51" s="9">
         <v>254740</v>
       </c>
-      <c r="H51" s="12">
+      <c r="H51" s="8">
         <v>385</v>
       </c>
-      <c r="I51" s="14">
+      <c r="I51" s="10">
         <v>5852490.46</v>
       </c>
     </row>
@@ -2798,28 +3238,28 @@
       <c r="A52">
         <v>48</v>
       </c>
-      <c r="B52" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="C52" s="12">
+      <c r="B52" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C52" s="8">
         <v>21.96</v>
       </c>
-      <c r="D52" s="12">
+      <c r="D52" s="8">
         <v>21.96</v>
       </c>
-      <c r="E52" s="12">
+      <c r="E52" s="8">
         <v>21.52</v>
       </c>
-      <c r="F52" s="12">
+      <c r="F52" s="8">
         <v>21.72</v>
       </c>
-      <c r="G52" s="13">
+      <c r="G52" s="9">
         <v>466808</v>
       </c>
-      <c r="H52" s="12">
+      <c r="H52" s="8">
         <v>717</v>
       </c>
-      <c r="I52" s="14">
+      <c r="I52" s="10">
         <v>10156108.98</v>
       </c>
     </row>
@@ -2827,28 +3267,28 @@
       <c r="A53">
         <v>82</v>
       </c>
-      <c r="B53" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C53" s="12">
+      <c r="B53" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="8">
         <v>37.450000000000003</v>
       </c>
-      <c r="D53" s="12">
+      <c r="D53" s="8">
         <v>38.5</v>
       </c>
-      <c r="E53" s="12">
+      <c r="E53" s="8">
         <v>37.35</v>
       </c>
-      <c r="F53" s="12">
+      <c r="F53" s="8">
         <v>38.5</v>
       </c>
-      <c r="G53" s="13">
+      <c r="G53" s="9">
         <v>1299672</v>
       </c>
-      <c r="H53" s="13">
+      <c r="H53" s="9">
         <v>2235</v>
       </c>
-      <c r="I53" s="14">
+      <c r="I53" s="10">
         <v>49522468.200000003</v>
       </c>
     </row>
@@ -2856,28 +3296,28 @@
       <c r="A54">
         <v>147</v>
       </c>
-      <c r="B54" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="C54" s="9">
+      <c r="B54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54" s="5">
         <v>27.5</v>
       </c>
-      <c r="D54" s="9">
+      <c r="D54" s="5">
         <v>28.65</v>
       </c>
-      <c r="E54" s="9">
+      <c r="E54" s="5">
         <v>27.45</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="5">
         <v>27.6</v>
       </c>
-      <c r="G54" s="10">
+      <c r="G54" s="6">
         <v>1166480</v>
       </c>
-      <c r="H54" s="10">
+      <c r="H54" s="6">
         <v>1509</v>
       </c>
-      <c r="I54" s="11">
+      <c r="I54" s="7">
         <v>32585779.600000001</v>
       </c>
     </row>
@@ -2885,28 +3325,28 @@
       <c r="A55">
         <v>172</v>
       </c>
-      <c r="B55" s="8" t="s">
-        <v>134</v>
-      </c>
-      <c r="C55" s="12">
+      <c r="B55" s="4" t="s">
+        <v>133</v>
+      </c>
+      <c r="C55" s="8">
         <v>0</v>
       </c>
-      <c r="D55" s="12">
+      <c r="D55" s="8">
         <v>0</v>
       </c>
-      <c r="E55" s="12">
+      <c r="E55" s="8">
         <v>0</v>
       </c>
-      <c r="F55" s="12">
+      <c r="F55" s="8">
         <v>11.06</v>
       </c>
-      <c r="G55" s="12">
+      <c r="G55" s="8">
         <v>0</v>
       </c>
-      <c r="H55" s="12">
+      <c r="H55" s="8">
         <v>0</v>
       </c>
-      <c r="I55" s="12">
+      <c r="I55" s="8">
         <v>0</v>
       </c>
     </row>
@@ -2914,28 +3354,28 @@
       <c r="A56">
         <v>158</v>
       </c>
-      <c r="B56" s="8" t="s">
-        <v>135</v>
-      </c>
-      <c r="C56" s="12">
+      <c r="B56" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C56" s="8">
         <v>40.200000000000003</v>
       </c>
-      <c r="D56" s="12">
+      <c r="D56" s="8">
         <v>40.25</v>
       </c>
-      <c r="E56" s="12">
+      <c r="E56" s="8">
         <v>39.4</v>
       </c>
-      <c r="F56" s="12">
+      <c r="F56" s="8">
         <v>40.25</v>
       </c>
-      <c r="G56" s="13">
+      <c r="G56" s="9">
         <v>157738</v>
       </c>
-      <c r="H56" s="12">
+      <c r="H56" s="8">
         <v>298</v>
       </c>
-      <c r="I56" s="14">
+      <c r="I56" s="10">
         <v>6297440.7000000002</v>
       </c>
     </row>
@@ -2943,28 +3383,28 @@
       <c r="A57">
         <v>54</v>
       </c>
-      <c r="B57" s="8" t="s">
-        <v>136</v>
-      </c>
-      <c r="C57" s="12">
+      <c r="B57" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C57" s="8">
         <v>13.36</v>
       </c>
-      <c r="D57" s="12">
+      <c r="D57" s="8">
         <v>13.54</v>
       </c>
-      <c r="E57" s="12">
+      <c r="E57" s="8">
         <v>13.16</v>
       </c>
-      <c r="F57" s="12">
+      <c r="F57" s="8">
         <v>13.5</v>
       </c>
-      <c r="G57" s="13">
+      <c r="G57" s="9">
         <v>829830</v>
       </c>
-      <c r="H57" s="12">
+      <c r="H57" s="8">
         <v>923</v>
       </c>
-      <c r="I57" s="14">
+      <c r="I57" s="10">
         <v>11134999.619999999</v>
       </c>
     </row>
@@ -2972,28 +3412,28 @@
       <c r="A58">
         <v>91</v>
       </c>
-      <c r="B58" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="9">
+      <c r="B58" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="C58" s="5">
         <v>56.3</v>
       </c>
-      <c r="D58" s="9">
+      <c r="D58" s="5">
         <v>56.5</v>
       </c>
-      <c r="E58" s="9">
+      <c r="E58" s="5">
         <v>55.5</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="5">
         <v>56</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="6">
         <v>216579</v>
       </c>
-      <c r="H58" s="9">
+      <c r="H58" s="5">
         <v>595</v>
       </c>
-      <c r="I58" s="11">
+      <c r="I58" s="7">
         <v>12127066.6</v>
       </c>
     </row>
@@ -3001,28 +3441,28 @@
       <c r="A59">
         <v>4</v>
       </c>
-      <c r="B59" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="C59" s="12">
+      <c r="B59" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="8">
         <v>38.6</v>
       </c>
-      <c r="D59" s="12">
+      <c r="D59" s="8">
         <v>38.700000000000003</v>
       </c>
-      <c r="E59" s="12">
+      <c r="E59" s="8">
         <v>38.200000000000003</v>
       </c>
-      <c r="F59" s="12">
+      <c r="F59" s="8">
         <v>38.299999999999997</v>
       </c>
-      <c r="G59" s="13">
+      <c r="G59" s="9">
         <v>2992266</v>
       </c>
-      <c r="H59" s="13">
+      <c r="H59" s="9">
         <v>2115</v>
       </c>
-      <c r="I59" s="14">
+      <c r="I59" s="10">
         <v>114922439.84999999</v>
       </c>
     </row>
@@ -3030,28 +3470,28 @@
       <c r="A60">
         <v>67</v>
       </c>
-      <c r="B60" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="C60" s="9">
+      <c r="B60" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C60" s="5">
         <v>26.4</v>
       </c>
-      <c r="D60" s="9">
+      <c r="D60" s="5">
         <v>26.55</v>
       </c>
-      <c r="E60" s="9">
+      <c r="E60" s="5">
         <v>25.75</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="5">
         <v>26.15</v>
       </c>
-      <c r="G60" s="10">
+      <c r="G60" s="6">
         <v>554807</v>
       </c>
-      <c r="H60" s="9">
+      <c r="H60" s="5">
         <v>924</v>
       </c>
-      <c r="I60" s="11">
+      <c r="I60" s="7">
         <v>14520775.199999999</v>
       </c>
     </row>
@@ -3059,28 +3499,28 @@
       <c r="A61">
         <v>49</v>
       </c>
-      <c r="B61" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="C61" s="9">
+      <c r="B61" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C61" s="5">
         <v>14.56</v>
       </c>
-      <c r="D61" s="9">
+      <c r="D61" s="5">
         <v>14.66</v>
       </c>
-      <c r="E61" s="9">
+      <c r="E61" s="5">
         <v>14.5</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="5">
         <v>14.66</v>
       </c>
-      <c r="G61" s="10">
+      <c r="G61" s="6">
         <v>656322</v>
       </c>
-      <c r="H61" s="9">
+      <c r="H61" s="5">
         <v>495</v>
       </c>
-      <c r="I61" s="11">
+      <c r="I61" s="7">
         <v>9558106.9000000004</v>
       </c>
     </row>
@@ -3088,28 +3528,28 @@
       <c r="A62">
         <v>8</v>
       </c>
-      <c r="B62" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C62" s="12">
+      <c r="B62" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="8">
         <v>25.85</v>
       </c>
-      <c r="D62" s="12">
+      <c r="D62" s="8">
         <v>26</v>
       </c>
-      <c r="E62" s="12">
+      <c r="E62" s="8">
         <v>25.5</v>
       </c>
-      <c r="F62" s="12">
+      <c r="F62" s="8">
         <v>25.75</v>
       </c>
-      <c r="G62" s="13">
+      <c r="G62" s="9">
         <v>375685</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H62" s="8">
         <v>471</v>
       </c>
-      <c r="I62" s="14">
+      <c r="I62" s="10">
         <v>9671953.1999999993</v>
       </c>
     </row>
@@ -3117,28 +3557,28 @@
       <c r="A63">
         <v>120</v>
       </c>
-      <c r="B63" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C63" s="12">
+      <c r="B63" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C63" s="8">
         <v>12.08</v>
       </c>
-      <c r="D63" s="12">
+      <c r="D63" s="8">
         <v>12.12</v>
       </c>
-      <c r="E63" s="12">
+      <c r="E63" s="8">
         <v>12</v>
       </c>
-      <c r="F63" s="12">
+      <c r="F63" s="8">
         <v>12.1</v>
       </c>
-      <c r="G63" s="13">
+      <c r="G63" s="9">
         <v>7683589</v>
       </c>
-      <c r="H63" s="13">
+      <c r="H63" s="9">
         <v>2737</v>
       </c>
-      <c r="I63" s="14">
+      <c r="I63" s="10">
         <v>92793282.459999993</v>
       </c>
     </row>
@@ -3146,28 +3586,28 @@
       <c r="A64">
         <v>190</v>
       </c>
-      <c r="B64" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="C64" s="12">
+      <c r="B64" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="C64" s="8">
         <v>8.5500000000000007</v>
       </c>
-      <c r="D64" s="12">
+      <c r="D64" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="E64" s="12">
+      <c r="E64" s="8">
         <v>8.5</v>
       </c>
-      <c r="F64" s="12">
+      <c r="F64" s="8">
         <v>8.6999999999999993</v>
       </c>
-      <c r="G64" s="13">
+      <c r="G64" s="9">
         <v>81520</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H64" s="8">
         <v>294</v>
       </c>
-      <c r="I64" s="14">
+      <c r="I64" s="10">
         <v>700011.5</v>
       </c>
     </row>
@@ -3175,28 +3615,28 @@
       <c r="A65">
         <v>122</v>
       </c>
-      <c r="B65" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="12">
+      <c r="B65" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C65" s="8">
         <v>30.3</v>
       </c>
-      <c r="D65" s="12">
+      <c r="D65" s="8">
         <v>31.5</v>
       </c>
-      <c r="E65" s="12">
+      <c r="E65" s="8">
         <v>30.3</v>
       </c>
-      <c r="F65" s="12">
+      <c r="F65" s="8">
         <v>31.5</v>
       </c>
-      <c r="G65" s="13">
+      <c r="G65" s="9">
         <v>505072</v>
       </c>
-      <c r="H65" s="12">
+      <c r="H65" s="8">
         <v>714</v>
       </c>
-      <c r="I65" s="14">
+      <c r="I65" s="10">
         <v>15738343.449999999</v>
       </c>
     </row>
@@ -3204,28 +3644,28 @@
       <c r="A66">
         <v>68</v>
       </c>
-      <c r="B66" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="C66" s="12">
+      <c r="B66" s="4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C66" s="8">
         <v>32.549999999999997</v>
       </c>
-      <c r="D66" s="12">
+      <c r="D66" s="8">
         <v>32.799999999999997</v>
       </c>
-      <c r="E66" s="12">
+      <c r="E66" s="8">
         <v>32.35</v>
       </c>
-      <c r="F66" s="12">
+      <c r="F66" s="8">
         <v>32.4</v>
       </c>
-      <c r="G66" s="13">
+      <c r="G66" s="9">
         <v>350614</v>
       </c>
-      <c r="H66" s="12">
+      <c r="H66" s="8">
         <v>884</v>
       </c>
-      <c r="I66" s="14">
+      <c r="I66" s="10">
         <v>11426626.4</v>
       </c>
     </row>
@@ -3233,28 +3673,28 @@
       <c r="A67">
         <v>155</v>
       </c>
-      <c r="B67" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="C67" s="9">
+      <c r="B67" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C67" s="5">
         <v>122.8</v>
       </c>
-      <c r="D67" s="9">
+      <c r="D67" s="5">
         <v>123</v>
       </c>
-      <c r="E67" s="9">
+      <c r="E67" s="5">
         <v>121.2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="5">
         <v>122.4</v>
       </c>
-      <c r="G67" s="10">
+      <c r="G67" s="6">
         <v>71700</v>
       </c>
-      <c r="H67" s="9">
+      <c r="H67" s="5">
         <v>344</v>
       </c>
-      <c r="I67" s="11">
+      <c r="I67" s="7">
         <v>8751905.4000000004</v>
       </c>
     </row>
@@ -3262,28 +3702,28 @@
       <c r="A68">
         <v>160</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C68" s="12">
+      <c r="B68" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C68" s="8">
         <v>18.239999999999998</v>
       </c>
-      <c r="D68" s="12">
+      <c r="D68" s="8">
         <v>18.239999999999998</v>
       </c>
-      <c r="E68" s="12">
+      <c r="E68" s="8">
         <v>18</v>
       </c>
-      <c r="F68" s="12">
+      <c r="F68" s="8">
         <v>18.22</v>
       </c>
-      <c r="G68" s="13">
+      <c r="G68" s="9">
         <v>260119</v>
       </c>
-      <c r="H68" s="12">
+      <c r="H68" s="8">
         <v>334</v>
       </c>
-      <c r="I68" s="14">
+      <c r="I68" s="10">
         <v>4718700.5999999996</v>
       </c>
     </row>
@@ -3291,28 +3731,28 @@
       <c r="A69">
         <v>114</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>68</v>
-      </c>
-      <c r="C69" s="12">
+      <c r="B69" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="C69" s="8">
         <v>48.25</v>
       </c>
-      <c r="D69" s="12">
+      <c r="D69" s="8">
         <v>49.95</v>
       </c>
-      <c r="E69" s="12">
+      <c r="E69" s="8">
         <v>48.25</v>
       </c>
-      <c r="F69" s="12">
+      <c r="F69" s="8">
         <v>49</v>
       </c>
-      <c r="G69" s="13">
+      <c r="G69" s="9">
         <v>868183</v>
       </c>
-      <c r="H69" s="13">
+      <c r="H69" s="9">
         <v>2083</v>
       </c>
-      <c r="I69" s="14">
+      <c r="I69" s="10">
         <v>42840025.200000003</v>
       </c>
     </row>
@@ -3320,28 +3760,28 @@
       <c r="A70">
         <v>63</v>
       </c>
-      <c r="B70" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C70" s="9">
+      <c r="B70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C70" s="5">
         <v>84.3</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D70" s="5">
         <v>84.3</v>
       </c>
-      <c r="E70" s="9">
+      <c r="E70" s="5">
         <v>83.2</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="5">
         <v>83.3</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="6">
         <v>189953</v>
       </c>
-      <c r="H70" s="9">
+      <c r="H70" s="5">
         <v>881</v>
       </c>
-      <c r="I70" s="11">
+      <c r="I70" s="7">
         <v>15863464.9</v>
       </c>
     </row>
@@ -3349,28 +3789,28 @@
       <c r="A71">
         <v>13</v>
       </c>
-      <c r="B71" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="C71" s="9">
+      <c r="B71" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C71" s="5">
         <v>8.11</v>
       </c>
-      <c r="D71" s="9">
+      <c r="D71" s="5">
         <v>8.17</v>
       </c>
-      <c r="E71" s="9">
+      <c r="E71" s="5">
         <v>8.07</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="5">
         <v>8.1300000000000008</v>
       </c>
-      <c r="G71" s="10">
+      <c r="G71" s="6">
         <v>2814861</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="6">
         <v>1637</v>
       </c>
-      <c r="I71" s="11">
+      <c r="I71" s="7">
         <v>22832797.82</v>
       </c>
     </row>
@@ -3378,28 +3818,28 @@
       <c r="A72">
         <v>111</v>
       </c>
-      <c r="B72" s="7" t="s">
-        <v>140</v>
-      </c>
-      <c r="C72" s="9">
+      <c r="B72" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C72" s="5">
         <v>25.85</v>
       </c>
-      <c r="D72" s="9">
+      <c r="D72" s="5">
         <v>26.1</v>
       </c>
-      <c r="E72" s="9">
+      <c r="E72" s="5">
         <v>25.8</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="5">
         <v>25.8</v>
       </c>
-      <c r="G72" s="10">
+      <c r="G72" s="6">
         <v>499869</v>
       </c>
-      <c r="H72" s="9">
+      <c r="H72" s="5">
         <v>459</v>
       </c>
-      <c r="I72" s="11">
+      <c r="I72" s="7">
         <v>12957987.15</v>
       </c>
     </row>
@@ -3407,28 +3847,28 @@
       <c r="A73">
         <v>157</v>
       </c>
-      <c r="B73" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C73" s="9">
+      <c r="B73" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C73" s="5">
         <v>24.6</v>
       </c>
-      <c r="D73" s="9">
+      <c r="D73" s="5">
         <v>24.86</v>
       </c>
-      <c r="E73" s="9">
+      <c r="E73" s="5">
         <v>24.3</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="5">
         <v>24.38</v>
       </c>
-      <c r="G73" s="10">
+      <c r="G73" s="6">
         <v>890056</v>
       </c>
-      <c r="H73" s="9">
+      <c r="H73" s="5">
         <v>725</v>
       </c>
-      <c r="I73" s="11">
+      <c r="I73" s="7">
         <v>21844735.920000002</v>
       </c>
     </row>
@@ -3436,28 +3876,28 @@
       <c r="A74">
         <v>34</v>
       </c>
-      <c r="B74" s="8" t="s">
-        <v>141</v>
-      </c>
-      <c r="C74" s="12">
+      <c r="B74" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="C74" s="8">
         <v>16.940000000000001</v>
       </c>
-      <c r="D74" s="12">
+      <c r="D74" s="8">
         <v>16.96</v>
       </c>
-      <c r="E74" s="12">
+      <c r="E74" s="8">
         <v>16.8</v>
       </c>
-      <c r="F74" s="12">
+      <c r="F74" s="8">
         <v>16.899999999999999</v>
       </c>
-      <c r="G74" s="13">
+      <c r="G74" s="9">
         <v>531502</v>
       </c>
-      <c r="H74" s="13">
+      <c r="H74" s="9">
         <v>1122</v>
       </c>
-      <c r="I74" s="14">
+      <c r="I74" s="10">
         <v>8973622.6199999992</v>
       </c>
     </row>
@@ -3465,28 +3905,28 @@
       <c r="A75">
         <v>113</v>
       </c>
-      <c r="B75" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="C75" s="9">
+      <c r="B75" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="C75" s="5">
         <v>57</v>
       </c>
-      <c r="D75" s="9">
+      <c r="D75" s="5">
         <v>57.2</v>
       </c>
-      <c r="E75" s="9">
+      <c r="E75" s="5">
         <v>56</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="5">
         <v>56.1</v>
       </c>
-      <c r="G75" s="10">
+      <c r="G75" s="6">
         <v>219054</v>
       </c>
-      <c r="H75" s="9">
+      <c r="H75" s="5">
         <v>829</v>
       </c>
-      <c r="I75" s="11">
+      <c r="I75" s="7">
         <v>12345020.1</v>
       </c>
     </row>
@@ -3494,28 +3934,28 @@
       <c r="A76">
         <v>199</v>
       </c>
-      <c r="B76" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="C76" s="9">
+      <c r="B76" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="5">
         <v>7.93</v>
       </c>
-      <c r="D76" s="9">
+      <c r="D76" s="5">
         <v>8</v>
       </c>
-      <c r="E76" s="9">
+      <c r="E76" s="5">
         <v>7.81</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="5">
         <v>7.84</v>
       </c>
-      <c r="G76" s="10">
+      <c r="G76" s="6">
         <v>38699992</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="6">
         <v>10710</v>
       </c>
-      <c r="I76" s="11">
+      <c r="I76" s="7">
         <v>305951322.13</v>
       </c>
     </row>
@@ -3523,28 +3963,28 @@
       <c r="A77">
         <v>184</v>
       </c>
-      <c r="B77" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C77" s="12">
+      <c r="B77" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C77" s="8">
         <v>9.64</v>
       </c>
-      <c r="D77" s="12">
+      <c r="D77" s="8">
         <v>9.65</v>
       </c>
-      <c r="E77" s="12">
+      <c r="E77" s="8">
         <v>9.6</v>
       </c>
-      <c r="F77" s="12">
+      <c r="F77" s="8">
         <v>9.6</v>
       </c>
-      <c r="G77" s="13">
+      <c r="G77" s="9">
         <v>511173</v>
       </c>
-      <c r="H77" s="12">
+      <c r="H77" s="8">
         <v>364</v>
       </c>
-      <c r="I77" s="14">
+      <c r="I77" s="10">
         <v>4921386.41</v>
       </c>
     </row>
@@ -3552,28 +3992,28 @@
       <c r="A78">
         <v>78</v>
       </c>
-      <c r="B78" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C78" s="12">
+      <c r="B78" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="C78" s="8">
         <v>26.3</v>
       </c>
-      <c r="D78" s="12">
+      <c r="D78" s="8">
         <v>26.8</v>
       </c>
-      <c r="E78" s="12">
+      <c r="E78" s="8">
         <v>26.15</v>
       </c>
-      <c r="F78" s="12">
+      <c r="F78" s="8">
         <v>26.8</v>
       </c>
-      <c r="G78" s="13">
+      <c r="G78" s="9">
         <v>855403</v>
       </c>
-      <c r="H78" s="13">
+      <c r="H78" s="9">
         <v>1206</v>
       </c>
-      <c r="I78" s="14">
+      <c r="I78" s="10">
         <v>22713738.149999999</v>
       </c>
     </row>
@@ -3581,28 +4021,28 @@
       <c r="A79">
         <v>50</v>
       </c>
-      <c r="B79" s="8" t="s">
-        <v>145</v>
-      </c>
-      <c r="C79" s="12">
+      <c r="B79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="C79" s="8">
         <v>15.66</v>
       </c>
-      <c r="D79" s="12">
+      <c r="D79" s="8">
         <v>15.72</v>
       </c>
-      <c r="E79" s="12">
+      <c r="E79" s="8">
         <v>15.48</v>
       </c>
-      <c r="F79" s="12">
+      <c r="F79" s="8">
         <v>15.56</v>
       </c>
-      <c r="G79" s="13">
+      <c r="G79" s="9">
         <v>494236</v>
       </c>
-      <c r="H79" s="12">
+      <c r="H79" s="8">
         <v>490</v>
       </c>
-      <c r="I79" s="14">
+      <c r="I79" s="10">
         <v>7710250.1200000001</v>
       </c>
     </row>
@@ -3610,28 +4050,28 @@
       <c r="A80">
         <v>196</v>
       </c>
-      <c r="B80" s="8" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="12">
+      <c r="B80" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="C80" s="8">
         <v>7.3</v>
       </c>
-      <c r="D80" s="12">
+      <c r="D80" s="8">
         <v>7.35</v>
       </c>
-      <c r="E80" s="12">
+      <c r="E80" s="8">
         <v>7.25</v>
       </c>
-      <c r="F80" s="12">
+      <c r="F80" s="8">
         <v>7.27</v>
       </c>
-      <c r="G80" s="13">
+      <c r="G80" s="9">
         <v>4359202</v>
       </c>
-      <c r="H80" s="13">
+      <c r="H80" s="9">
         <v>2033</v>
       </c>
-      <c r="I80" s="14">
+      <c r="I80" s="10">
         <v>31849641.620000001</v>
       </c>
     </row>
@@ -3639,28 +4079,28 @@
       <c r="A81">
         <v>165</v>
       </c>
-      <c r="B81" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="C81" s="9">
+      <c r="B81" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C81" s="5">
         <v>22.16</v>
       </c>
-      <c r="D81" s="9">
+      <c r="D81" s="5">
         <v>22.4</v>
       </c>
-      <c r="E81" s="9">
+      <c r="E81" s="5">
         <v>21.96</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="5">
         <v>22.16</v>
       </c>
-      <c r="G81" s="10">
+      <c r="G81" s="6">
         <v>845928</v>
       </c>
-      <c r="H81" s="10">
+      <c r="H81" s="6">
         <v>1072</v>
       </c>
-      <c r="I81" s="11">
+      <c r="I81" s="7">
         <v>18726157.800000001</v>
       </c>
     </row>
@@ -3668,28 +4108,28 @@
       <c r="A82">
         <v>45</v>
       </c>
-      <c r="B82" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="C82" s="9">
+      <c r="B82" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C82" s="5">
         <v>35</v>
       </c>
-      <c r="D82" s="9">
+      <c r="D82" s="5">
         <v>35</v>
       </c>
-      <c r="E82" s="9">
+      <c r="E82" s="5">
         <v>34.4</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="5">
         <v>34.65</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="6">
         <v>177127</v>
       </c>
-      <c r="H82" s="9">
+      <c r="H82" s="5">
         <v>619</v>
       </c>
-      <c r="I82" s="11">
+      <c r="I82" s="7">
         <v>6120091.4000000004</v>
       </c>
     </row>
@@ -3697,28 +4137,28 @@
       <c r="A83">
         <v>170</v>
       </c>
-      <c r="B83" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="C83" s="12">
+      <c r="B83" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="C83" s="8">
         <v>27.25</v>
       </c>
-      <c r="D83" s="12">
+      <c r="D83" s="8">
         <v>27.3</v>
       </c>
-      <c r="E83" s="12">
+      <c r="E83" s="8">
         <v>27</v>
       </c>
-      <c r="F83" s="12">
+      <c r="F83" s="8">
         <v>27.1</v>
       </c>
-      <c r="G83" s="13">
+      <c r="G83" s="9">
         <v>1006001</v>
       </c>
-      <c r="H83" s="13">
+      <c r="H83" s="9">
         <v>1010</v>
       </c>
-      <c r="I83" s="14">
+      <c r="I83" s="10">
         <v>27331000.449999999</v>
       </c>
     </row>
@@ -3726,28 +4166,28 @@
       <c r="A84">
         <v>88</v>
       </c>
-      <c r="B84" s="8" t="s">
-        <v>150</v>
-      </c>
-      <c r="C84" s="12">
+      <c r="B84" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="C84" s="8">
         <v>57.5</v>
       </c>
-      <c r="D84" s="12">
+      <c r="D84" s="8">
         <v>57.8</v>
       </c>
-      <c r="E84" s="12">
+      <c r="E84" s="8">
         <v>57.4</v>
       </c>
-      <c r="F84" s="12">
+      <c r="F84" s="8">
         <v>57.5</v>
       </c>
-      <c r="G84" s="13">
+      <c r="G84" s="9">
         <v>296188</v>
       </c>
-      <c r="H84" s="12">
+      <c r="H84" s="8">
         <v>717</v>
       </c>
-      <c r="I84" s="14">
+      <c r="I84" s="10">
         <v>17040949.399999999</v>
       </c>
     </row>
@@ -3755,28 +4195,28 @@
       <c r="A85">
         <v>96</v>
       </c>
-      <c r="B85" s="8" t="s">
-        <v>151</v>
-      </c>
-      <c r="C85" s="12">
+      <c r="B85" s="4" t="s">
+        <v>150</v>
+      </c>
+      <c r="C85" s="8">
         <v>25.85</v>
       </c>
-      <c r="D85" s="12">
+      <c r="D85" s="8">
         <v>25.9</v>
       </c>
-      <c r="E85" s="12">
+      <c r="E85" s="8">
         <v>25.05</v>
       </c>
-      <c r="F85" s="12">
+      <c r="F85" s="8">
         <v>25.55</v>
       </c>
-      <c r="G85" s="13">
+      <c r="G85" s="9">
         <v>628486</v>
       </c>
-      <c r="H85" s="13">
+      <c r="H85" s="9">
         <v>1013</v>
       </c>
-      <c r="I85" s="14">
+      <c r="I85" s="10">
         <v>16002270.4</v>
       </c>
     </row>
@@ -3784,28 +4224,28 @@
       <c r="A86">
         <v>21</v>
       </c>
-      <c r="B86" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C86" s="9">
+      <c r="B86" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C86" s="5">
         <v>44.15</v>
       </c>
-      <c r="D86" s="9">
+      <c r="D86" s="5">
         <v>45.5</v>
       </c>
-      <c r="E86" s="9">
+      <c r="E86" s="5">
         <v>44.05</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="5">
         <v>45</v>
       </c>
-      <c r="G86" s="10">
+      <c r="G86" s="6">
         <v>3529697</v>
       </c>
-      <c r="H86" s="10">
+      <c r="H86" s="6">
         <v>6329</v>
       </c>
-      <c r="I86" s="11">
+      <c r="I86" s="7">
         <v>157871783.75</v>
       </c>
     </row>
@@ -3813,28 +4253,28 @@
       <c r="A87">
         <v>74</v>
       </c>
-      <c r="B87" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="C87" s="12">
+      <c r="B87" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="C87" s="8">
         <v>11.38</v>
       </c>
-      <c r="D87" s="12">
+      <c r="D87" s="8">
         <v>11.44</v>
       </c>
-      <c r="E87" s="12">
+      <c r="E87" s="8">
         <v>11.32</v>
       </c>
-      <c r="F87" s="12">
+      <c r="F87" s="8">
         <v>11.34</v>
       </c>
-      <c r="G87" s="13">
+      <c r="G87" s="9">
         <v>604694</v>
       </c>
-      <c r="H87" s="12">
+      <c r="H87" s="8">
         <v>410</v>
       </c>
-      <c r="I87" s="14">
+      <c r="I87" s="10">
         <v>6873661.7800000003</v>
       </c>
     </row>
@@ -3842,28 +4282,28 @@
       <c r="A88">
         <v>77</v>
       </c>
-      <c r="B88" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="C88" s="9">
+      <c r="B88" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C88" s="5">
         <v>61.3</v>
       </c>
-      <c r="D88" s="9">
+      <c r="D88" s="5">
         <v>61.9</v>
       </c>
-      <c r="E88" s="9">
+      <c r="E88" s="5">
         <v>60.5</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="5">
         <v>61.1</v>
       </c>
-      <c r="G88" s="10">
+      <c r="G88" s="6">
         <v>565411</v>
       </c>
-      <c r="H88" s="10">
+      <c r="H88" s="6">
         <v>1560</v>
       </c>
-      <c r="I88" s="11">
+      <c r="I88" s="7">
         <v>34583500.299999997</v>
       </c>
     </row>
@@ -3871,28 +4311,28 @@
       <c r="A89">
         <v>105</v>
       </c>
-      <c r="B89" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C89" s="9">
+      <c r="B89" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C89" s="5">
         <v>15.12</v>
       </c>
-      <c r="D89" s="9">
+      <c r="D89" s="5">
         <v>15.5</v>
       </c>
-      <c r="E89" s="9">
+      <c r="E89" s="5">
         <v>14.9</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="5">
         <v>15.3</v>
       </c>
-      <c r="G89" s="10">
+      <c r="G89" s="6">
         <v>5451811</v>
       </c>
-      <c r="H89" s="10">
+      <c r="H89" s="6">
         <v>3852</v>
       </c>
-      <c r="I89" s="11">
+      <c r="I89" s="7">
         <v>82592558.400000006</v>
       </c>
     </row>
@@ -3900,28 +4340,28 @@
       <c r="A90">
         <v>173</v>
       </c>
-      <c r="B90" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="C90" s="9">
+      <c r="B90" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C90" s="5">
         <v>29</v>
       </c>
-      <c r="D90" s="9">
+      <c r="D90" s="5">
         <v>29.15</v>
       </c>
-      <c r="E90" s="9">
+      <c r="E90" s="5">
         <v>28.95</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="5">
         <v>29</v>
       </c>
-      <c r="G90" s="10">
+      <c r="G90" s="6">
         <v>372058</v>
       </c>
-      <c r="H90" s="9">
+      <c r="H90" s="5">
         <v>680</v>
       </c>
-      <c r="I90" s="11">
+      <c r="I90" s="7">
         <v>10820547.9</v>
       </c>
     </row>
@@ -3929,28 +4369,28 @@
       <c r="A91">
         <v>159</v>
       </c>
-      <c r="B91" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" s="9">
+      <c r="B91" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C91" s="5">
         <v>12.34</v>
       </c>
-      <c r="D91" s="9">
+      <c r="D91" s="5">
         <v>12.68</v>
       </c>
-      <c r="E91" s="9">
+      <c r="E91" s="5">
         <v>12.32</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="5">
         <v>12.66</v>
       </c>
-      <c r="G91" s="10">
+      <c r="G91" s="6">
         <v>2162416</v>
       </c>
-      <c r="H91" s="10">
+      <c r="H91" s="6">
         <v>1238</v>
       </c>
-      <c r="I91" s="11">
+      <c r="I91" s="7">
         <v>27011574</v>
       </c>
     </row>
@@ -3958,28 +4398,28 @@
       <c r="A92">
         <v>146</v>
       </c>
-      <c r="B92" s="8" t="s">
-        <v>157</v>
-      </c>
-      <c r="C92" s="12">
+      <c r="B92" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="C92" s="8">
         <v>14.22</v>
       </c>
-      <c r="D92" s="12">
+      <c r="D92" s="8">
         <v>14.28</v>
       </c>
-      <c r="E92" s="12">
+      <c r="E92" s="8">
         <v>14.14</v>
       </c>
-      <c r="F92" s="12">
+      <c r="F92" s="8">
         <v>14.18</v>
       </c>
-      <c r="G92" s="13">
+      <c r="G92" s="9">
         <v>232616</v>
       </c>
-      <c r="H92" s="12">
+      <c r="H92" s="8">
         <v>331</v>
       </c>
-      <c r="I92" s="14">
+      <c r="I92" s="10">
         <v>3301442.62</v>
       </c>
     </row>
@@ -3987,28 +4427,28 @@
       <c r="A93">
         <v>103</v>
       </c>
-      <c r="B93" s="7" t="s">
-        <v>53</v>
-      </c>
-      <c r="C93" s="9">
+      <c r="B93" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C93" s="5">
         <v>65.599999999999994</v>
       </c>
-      <c r="D93" s="9">
+      <c r="D93" s="5">
         <v>67.5</v>
       </c>
-      <c r="E93" s="9">
+      <c r="E93" s="5">
         <v>65</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="5">
         <v>66.5</v>
       </c>
-      <c r="G93" s="10">
+      <c r="G93" s="6">
         <v>218179</v>
       </c>
-      <c r="H93" s="9">
+      <c r="H93" s="5">
         <v>835</v>
       </c>
-      <c r="I93" s="11">
+      <c r="I93" s="7">
         <v>14485082</v>
       </c>
     </row>
@@ -4016,28 +4456,28 @@
       <c r="A94">
         <v>32</v>
       </c>
-      <c r="B94" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C94" s="12">
+      <c r="B94" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C94" s="8">
         <v>13.24</v>
       </c>
-      <c r="D94" s="12">
+      <c r="D94" s="8">
         <v>13.26</v>
       </c>
-      <c r="E94" s="12">
+      <c r="E94" s="8">
         <v>13.14</v>
       </c>
-      <c r="F94" s="12">
+      <c r="F94" s="8">
         <v>13.24</v>
       </c>
-      <c r="G94" s="13">
+      <c r="G94" s="9">
         <v>876274</v>
       </c>
-      <c r="H94" s="12">
+      <c r="H94" s="8">
         <v>607</v>
       </c>
-      <c r="I94" s="14">
+      <c r="I94" s="10">
         <v>11567621.16</v>
       </c>
     </row>
@@ -4045,28 +4485,28 @@
       <c r="A95">
         <v>83</v>
       </c>
-      <c r="B95" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="C95" s="9">
+      <c r="B95" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C95" s="5">
         <v>47.45</v>
       </c>
-      <c r="D95" s="9">
+      <c r="D95" s="5">
         <v>48</v>
       </c>
-      <c r="E95" s="9">
+      <c r="E95" s="5">
         <v>47.25</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="5">
         <v>47.8</v>
       </c>
-      <c r="G95" s="10">
+      <c r="G95" s="6">
         <v>600995</v>
       </c>
-      <c r="H95" s="10">
+      <c r="H95" s="6">
         <v>1404</v>
       </c>
-      <c r="I95" s="11">
+      <c r="I95" s="7">
         <v>28652856.550000001</v>
       </c>
     </row>
@@ -4074,28 +4514,28 @@
       <c r="A96">
         <v>198</v>
       </c>
-      <c r="B96" s="8" t="s">
-        <v>159</v>
-      </c>
-      <c r="C96" s="12">
+      <c r="B96" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="C96" s="8">
         <v>26.85</v>
       </c>
-      <c r="D96" s="12">
+      <c r="D96" s="8">
         <v>27.2</v>
       </c>
-      <c r="E96" s="12">
+      <c r="E96" s="8">
         <v>26.8</v>
       </c>
-      <c r="F96" s="12">
+      <c r="F96" s="8">
         <v>27</v>
       </c>
-      <c r="G96" s="13">
+      <c r="G96" s="9">
         <v>1930209</v>
       </c>
-      <c r="H96" s="12">
+      <c r="H96" s="8">
         <v>984</v>
       </c>
-      <c r="I96" s="14">
+      <c r="I96" s="10">
         <v>52081541.549999997</v>
       </c>
     </row>
@@ -4103,28 +4543,28 @@
       <c r="A97">
         <v>177</v>
       </c>
-      <c r="B97" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="C97" s="9">
+      <c r="B97" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C97" s="5">
         <v>6.49</v>
       </c>
-      <c r="D97" s="9">
+      <c r="D97" s="5">
         <v>6.66</v>
       </c>
-      <c r="E97" s="9">
+      <c r="E97" s="5">
         <v>6.46</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="5">
         <v>6.56</v>
       </c>
-      <c r="G97" s="10">
+      <c r="G97" s="6">
         <v>1522471</v>
       </c>
-      <c r="H97" s="9">
+      <c r="H97" s="5">
         <v>919</v>
       </c>
-      <c r="I97" s="11">
+      <c r="I97" s="7">
         <v>10027801.24</v>
       </c>
     </row>
@@ -4132,28 +4572,28 @@
       <c r="A98">
         <v>186</v>
       </c>
-      <c r="B98" s="8" t="s">
-        <v>161</v>
-      </c>
-      <c r="C98" s="12">
+      <c r="B98" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C98" s="8">
         <v>12.4</v>
       </c>
-      <c r="D98" s="12">
+      <c r="D98" s="8">
         <v>12.84</v>
       </c>
-      <c r="E98" s="12">
+      <c r="E98" s="8">
         <v>12.4</v>
       </c>
-      <c r="F98" s="12">
+      <c r="F98" s="8">
         <v>12.54</v>
       </c>
-      <c r="G98" s="13">
+      <c r="G98" s="9">
         <v>213443</v>
       </c>
-      <c r="H98" s="12">
+      <c r="H98" s="8">
         <v>150</v>
       </c>
-      <c r="I98" s="14">
+      <c r="I98" s="10">
         <v>2671136</v>
       </c>
     </row>
@@ -4161,28 +4601,28 @@
       <c r="A99">
         <v>92</v>
       </c>
-      <c r="B99" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="C99" s="12">
+      <c r="B99" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" s="8">
         <v>163</v>
       </c>
-      <c r="D99" s="12">
+      <c r="D99" s="8">
         <v>166</v>
       </c>
-      <c r="E99" s="12">
+      <c r="E99" s="8">
         <v>162.80000000000001</v>
       </c>
-      <c r="F99" s="12">
+      <c r="F99" s="8">
         <v>166</v>
       </c>
-      <c r="G99" s="13">
+      <c r="G99" s="9">
         <v>250663</v>
       </c>
-      <c r="H99" s="13">
+      <c r="H99" s="9">
         <v>2003</v>
       </c>
-      <c r="I99" s="14">
+      <c r="I99" s="10">
         <v>41385316.399999999</v>
       </c>
     </row>
@@ -4190,28 +4630,28 @@
       <c r="A100">
         <v>110</v>
       </c>
-      <c r="B100" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="C100" s="12">
+      <c r="B100" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="C100" s="8">
         <v>13.4</v>
       </c>
-      <c r="D100" s="12">
+      <c r="D100" s="8">
         <v>13.44</v>
       </c>
-      <c r="E100" s="12">
+      <c r="E100" s="8">
         <v>13.08</v>
       </c>
-      <c r="F100" s="12">
+      <c r="F100" s="8">
         <v>13.38</v>
       </c>
-      <c r="G100" s="13">
+      <c r="G100" s="9">
         <v>2069112</v>
       </c>
-      <c r="H100" s="13">
+      <c r="H100" s="9">
         <v>1452</v>
       </c>
-      <c r="I100" s="14">
+      <c r="I100" s="10">
         <v>27572864.32</v>
       </c>
     </row>
@@ -4219,28 +4659,28 @@
       <c r="A101">
         <v>136</v>
       </c>
-      <c r="B101" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="C101" s="12">
+      <c r="B101" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="C101" s="8">
         <v>19.16</v>
       </c>
-      <c r="D101" s="12">
+      <c r="D101" s="8">
         <v>19.22</v>
       </c>
-      <c r="E101" s="12">
+      <c r="E101" s="8">
         <v>18.84</v>
       </c>
-      <c r="F101" s="12">
+      <c r="F101" s="8">
         <v>19</v>
       </c>
-      <c r="G101" s="13">
+      <c r="G101" s="9">
         <v>632933</v>
       </c>
-      <c r="H101" s="12">
+      <c r="H101" s="8">
         <v>818</v>
       </c>
-      <c r="I101" s="14">
+      <c r="I101" s="10">
         <v>12060044.52</v>
       </c>
     </row>
@@ -4248,28 +4688,28 @@
       <c r="A102">
         <v>47</v>
       </c>
-      <c r="B102" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="C102" s="9">
+      <c r="B102" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C102" s="5">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D102" s="9">
+      <c r="D102" s="5">
         <v>9.43</v>
       </c>
-      <c r="E102" s="9">
+      <c r="E102" s="5">
         <v>9.2799999999999994</v>
       </c>
-      <c r="F102" s="9">
+      <c r="F102" s="5">
         <v>9.32</v>
       </c>
-      <c r="G102" s="10">
+      <c r="G102" s="6">
         <v>4370481</v>
       </c>
-      <c r="H102" s="10">
+      <c r="H102" s="6">
         <v>3000</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="7">
         <v>40898765.350000001</v>
       </c>
     </row>
@@ -4277,28 +4717,28 @@
       <c r="A103">
         <v>200</v>
       </c>
-      <c r="B103" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C103" s="12">
+      <c r="B103" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C103" s="8">
         <v>9.3800000000000008</v>
       </c>
-      <c r="D103" s="12">
+      <c r="D103" s="8">
         <v>9.4</v>
       </c>
-      <c r="E103" s="12">
+      <c r="E103" s="8">
         <v>9.32</v>
       </c>
-      <c r="F103" s="12">
+      <c r="F103" s="8">
         <v>9.33</v>
       </c>
-      <c r="G103" s="13">
+      <c r="G103" s="9">
         <v>1123872</v>
       </c>
-      <c r="H103" s="12">
+      <c r="H103" s="8">
         <v>631</v>
       </c>
-      <c r="I103" s="14">
+      <c r="I103" s="10">
         <v>10524241.1</v>
       </c>
     </row>
@@ -4306,28 +4746,28 @@
       <c r="A104">
         <v>134</v>
       </c>
-      <c r="B104" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="C104" s="12">
+      <c r="B104" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="8">
         <v>6.83</v>
       </c>
-      <c r="D104" s="12">
+      <c r="D104" s="8">
         <v>6.86</v>
       </c>
-      <c r="E104" s="12">
+      <c r="E104" s="8">
         <v>6.8</v>
       </c>
-      <c r="F104" s="12">
+      <c r="F104" s="8">
         <v>6.85</v>
       </c>
-      <c r="G104" s="13">
+      <c r="G104" s="9">
         <v>661573</v>
       </c>
-      <c r="H104" s="12">
+      <c r="H104" s="8">
         <v>409</v>
       </c>
-      <c r="I104" s="14">
+      <c r="I104" s="10">
         <v>4518260.78</v>
       </c>
     </row>
@@ -4335,28 +4775,28 @@
       <c r="A105">
         <v>72</v>
       </c>
-      <c r="B105" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="12">
+      <c r="B105" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C105" s="8">
         <v>15.3</v>
       </c>
-      <c r="D105" s="12">
+      <c r="D105" s="8">
         <v>15.3</v>
       </c>
-      <c r="E105" s="12">
+      <c r="E105" s="8">
         <v>14.74</v>
       </c>
-      <c r="F105" s="12">
+      <c r="F105" s="8">
         <v>14.82</v>
       </c>
-      <c r="G105" s="13">
+      <c r="G105" s="9">
         <v>1811866</v>
       </c>
-      <c r="H105" s="13">
+      <c r="H105" s="9">
         <v>2300</v>
       </c>
-      <c r="I105" s="14">
+      <c r="I105" s="10">
         <v>27081946.859999999</v>
       </c>
     </row>
@@ -4364,28 +4804,28 @@
       <c r="A106">
         <v>24</v>
       </c>
-      <c r="B106" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C106" s="12">
+      <c r="B106" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="C106" s="8">
         <v>17.28</v>
       </c>
-      <c r="D106" s="12">
+      <c r="D106" s="8">
         <v>17.34</v>
       </c>
-      <c r="E106" s="12">
+      <c r="E106" s="8">
         <v>17.059999999999999</v>
       </c>
-      <c r="F106" s="12">
+      <c r="F106" s="8">
         <v>17.079999999999998</v>
       </c>
-      <c r="G106" s="13">
+      <c r="G106" s="9">
         <v>1005843</v>
       </c>
-      <c r="H106" s="13">
+      <c r="H106" s="9">
         <v>1157</v>
       </c>
-      <c r="I106" s="14">
+      <c r="I106" s="10">
         <v>17302252.02</v>
       </c>
     </row>
@@ -4393,28 +4833,28 @@
       <c r="A107">
         <v>9</v>
       </c>
-      <c r="B107" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="C107" s="9">
+      <c r="B107" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C107" s="5">
         <v>37.549999999999997</v>
       </c>
-      <c r="D107" s="9">
+      <c r="D107" s="5">
         <v>37.799999999999997</v>
       </c>
-      <c r="E107" s="9">
+      <c r="E107" s="5">
         <v>36.85</v>
       </c>
-      <c r="F107" s="9">
+      <c r="F107" s="5">
         <v>37.450000000000003</v>
       </c>
-      <c r="G107" s="10">
+      <c r="G107" s="6">
         <v>762433</v>
       </c>
-      <c r="H107" s="10">
+      <c r="H107" s="6">
         <v>1262</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="7">
         <v>28411335.050000001</v>
       </c>
     </row>
@@ -4422,28 +4862,28 @@
       <c r="A108">
         <v>61</v>
       </c>
-      <c r="B108" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="C108" s="9">
+      <c r="B108" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C108" s="5">
         <v>74.099999999999994</v>
       </c>
-      <c r="D108" s="9">
+      <c r="D108" s="5">
         <v>75.900000000000006</v>
       </c>
-      <c r="E108" s="9">
+      <c r="E108" s="5">
         <v>73.599999999999994</v>
       </c>
-      <c r="F108" s="9">
+      <c r="F108" s="5">
         <v>75.3</v>
       </c>
-      <c r="G108" s="10">
+      <c r="G108" s="6">
         <v>590249</v>
       </c>
-      <c r="H108" s="10">
+      <c r="H108" s="6">
         <v>1617</v>
       </c>
-      <c r="I108" s="11">
+      <c r="I108" s="7">
         <v>44148879.700000003</v>
       </c>
     </row>
@@ -4451,28 +4891,28 @@
       <c r="A109">
         <v>137</v>
       </c>
-      <c r="B109" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="C109" s="9">
+      <c r="B109" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="C109" s="5">
         <v>15.06</v>
       </c>
-      <c r="D109" s="9">
+      <c r="D109" s="5">
         <v>15.14</v>
       </c>
-      <c r="E109" s="9">
+      <c r="E109" s="5">
         <v>14.8</v>
       </c>
-      <c r="F109" s="9">
+      <c r="F109" s="5">
         <v>15</v>
       </c>
-      <c r="G109" s="10">
+      <c r="G109" s="6">
         <v>1357452</v>
       </c>
-      <c r="H109" s="10">
+      <c r="H109" s="6">
         <v>1088</v>
       </c>
-      <c r="I109" s="11">
+      <c r="I109" s="7">
         <v>20297461.399999999</v>
       </c>
     </row>
@@ -4480,28 +4920,28 @@
       <c r="A110">
         <v>182</v>
       </c>
-      <c r="B110" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="C110" s="12">
+      <c r="B110" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C110" s="8">
         <v>7.23</v>
       </c>
-      <c r="D110" s="12">
+      <c r="D110" s="8">
         <v>7.27</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="8">
         <v>7.23</v>
       </c>
-      <c r="F110" s="12">
+      <c r="F110" s="8">
         <v>7.27</v>
       </c>
-      <c r="G110" s="13">
+      <c r="G110" s="9">
         <v>80949</v>
       </c>
-      <c r="H110" s="12">
+      <c r="H110" s="8">
         <v>165</v>
       </c>
-      <c r="I110" s="14">
+      <c r="I110" s="10">
         <v>586482.93999999994</v>
       </c>
     </row>
@@ -4509,28 +4949,28 @@
       <c r="A111">
         <v>194</v>
       </c>
-      <c r="B111" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="C111" s="12">
+      <c r="B111" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="C111" s="8">
         <v>59</v>
       </c>
-      <c r="D111" s="12">
+      <c r="D111" s="8">
         <v>59.3</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="8">
         <v>58.2</v>
       </c>
-      <c r="F111" s="12">
+      <c r="F111" s="8">
         <v>58.6</v>
       </c>
-      <c r="G111" s="13">
+      <c r="G111" s="9">
         <v>1015262</v>
       </c>
-      <c r="H111" s="13">
+      <c r="H111" s="9">
         <v>1957</v>
       </c>
-      <c r="I111" s="14">
+      <c r="I111" s="10">
         <v>59627231.5</v>
       </c>
     </row>
@@ -4538,28 +4978,28 @@
       <c r="A112">
         <v>138</v>
       </c>
-      <c r="B112" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C112" s="12">
+      <c r="B112" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C112" s="8">
         <v>24.8</v>
       </c>
-      <c r="D112" s="12">
+      <c r="D112" s="8">
         <v>25</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="8">
         <v>24.36</v>
       </c>
-      <c r="F112" s="12">
+      <c r="F112" s="8">
         <v>24.7</v>
       </c>
-      <c r="G112" s="13">
+      <c r="G112" s="9">
         <v>915552</v>
       </c>
-      <c r="H112" s="13">
+      <c r="H112" s="9">
         <v>1248</v>
       </c>
-      <c r="I112" s="14">
+      <c r="I112" s="10">
         <v>22597180.359999999</v>
       </c>
     </row>
@@ -4567,28 +5007,28 @@
       <c r="A113">
         <v>189</v>
       </c>
-      <c r="B113" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="C113" s="9">
+      <c r="B113" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C113" s="5">
         <v>6.58</v>
       </c>
-      <c r="D113" s="9">
+      <c r="D113" s="5">
         <v>6.74</v>
       </c>
-      <c r="E113" s="9">
+      <c r="E113" s="5">
         <v>6.57</v>
       </c>
-      <c r="F113" s="9">
+      <c r="F113" s="5">
         <v>6.63</v>
       </c>
-      <c r="G113" s="10">
+      <c r="G113" s="6">
         <v>3531764</v>
       </c>
-      <c r="H113" s="10">
+      <c r="H113" s="6">
         <v>2416</v>
       </c>
-      <c r="I113" s="11">
+      <c r="I113" s="7">
         <v>23540787.199999999</v>
       </c>
     </row>
@@ -4596,28 +5036,28 @@
       <c r="A114">
         <v>7</v>
       </c>
-      <c r="B114" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="C114" s="9">
+      <c r="B114" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C114" s="5">
         <v>15.34</v>
       </c>
-      <c r="D114" s="9">
+      <c r="D114" s="5">
         <v>15.44</v>
       </c>
-      <c r="E114" s="9">
+      <c r="E114" s="5">
         <v>15.2</v>
       </c>
-      <c r="F114" s="9">
+      <c r="F114" s="5">
         <v>15.3</v>
       </c>
-      <c r="G114" s="10">
+      <c r="G114" s="6">
         <v>1132998</v>
       </c>
-      <c r="H114" s="10">
+      <c r="H114" s="6">
         <v>1428</v>
       </c>
-      <c r="I114" s="11">
+      <c r="I114" s="7">
         <v>17349951.460000001</v>
       </c>
     </row>
@@ -4625,28 +5065,28 @@
       <c r="A115">
         <v>58</v>
       </c>
-      <c r="B115" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C115" s="12">
+      <c r="B115" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C115" s="8">
         <v>9.61</v>
       </c>
-      <c r="D115" s="12">
+      <c r="D115" s="8">
         <v>9.61</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="8">
         <v>9.4700000000000006</v>
       </c>
-      <c r="F115" s="12">
+      <c r="F115" s="8">
         <v>9.5399999999999991</v>
       </c>
-      <c r="G115" s="13">
+      <c r="G115" s="9">
         <v>734659</v>
       </c>
-      <c r="H115" s="12">
+      <c r="H115" s="8">
         <v>825</v>
       </c>
-      <c r="I115" s="14">
+      <c r="I115" s="10">
         <v>7004880.9500000002</v>
       </c>
     </row>
@@ -4654,28 +5094,28 @@
       <c r="A116">
         <v>167</v>
       </c>
-      <c r="B116" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="C116" s="9">
+      <c r="B116" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C116" s="5">
         <v>57.8</v>
       </c>
-      <c r="D116" s="9">
+      <c r="D116" s="5">
         <v>57.8</v>
       </c>
-      <c r="E116" s="9">
+      <c r="E116" s="5">
         <v>57</v>
       </c>
-      <c r="F116" s="9">
+      <c r="F116" s="5">
         <v>57.1</v>
       </c>
-      <c r="G116" s="10">
+      <c r="G116" s="6">
         <v>93337</v>
       </c>
-      <c r="H116" s="9">
+      <c r="H116" s="5">
         <v>377</v>
       </c>
-      <c r="I116" s="11">
+      <c r="I116" s="7">
         <v>5349111.3</v>
       </c>
     </row>
@@ -4683,28 +5123,28 @@
       <c r="A117">
         <v>112</v>
       </c>
-      <c r="B117" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C117" s="12">
+      <c r="B117" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="C117" s="8">
         <v>112.2</v>
       </c>
-      <c r="D117" s="12">
+      <c r="D117" s="8">
         <v>112.2</v>
       </c>
-      <c r="E117" s="12">
+      <c r="E117" s="8">
         <v>107.6</v>
       </c>
-      <c r="F117" s="12">
+      <c r="F117" s="8">
         <v>108.2</v>
       </c>
-      <c r="G117" s="13">
+      <c r="G117" s="9">
         <v>96822</v>
       </c>
-      <c r="H117" s="12">
+      <c r="H117" s="8">
         <v>814</v>
       </c>
-      <c r="I117" s="14">
+      <c r="I117" s="10">
         <v>10564526.4</v>
       </c>
     </row>
@@ -4712,28 +5152,28 @@
       <c r="A118">
         <v>181</v>
       </c>
-      <c r="B118" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="C118" s="9">
+      <c r="B118" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C118" s="5">
         <v>8.3699999999999992</v>
       </c>
-      <c r="D118" s="9">
+      <c r="D118" s="5">
         <v>8.3699999999999992</v>
       </c>
-      <c r="E118" s="9">
+      <c r="E118" s="5">
         <v>8.31</v>
       </c>
-      <c r="F118" s="9">
+      <c r="F118" s="5">
         <v>8.31</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="6">
         <v>65349</v>
       </c>
-      <c r="H118" s="9">
+      <c r="H118" s="5">
         <v>131</v>
       </c>
-      <c r="I118" s="11">
+      <c r="I118" s="7">
         <v>546135.98</v>
       </c>
     </row>
@@ -4741,28 +5181,28 @@
       <c r="A119">
         <v>180</v>
       </c>
-      <c r="B119" s="8" t="s">
-        <v>172</v>
-      </c>
-      <c r="C119" s="12">
+      <c r="B119" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C119" s="8">
         <v>8.2799999999999994</v>
       </c>
-      <c r="D119" s="12">
+      <c r="D119" s="8">
         <v>8.36</v>
       </c>
-      <c r="E119" s="12">
+      <c r="E119" s="8">
         <v>8.26</v>
       </c>
-      <c r="F119" s="12">
+      <c r="F119" s="8">
         <v>8.33</v>
       </c>
-      <c r="G119" s="13">
+      <c r="G119" s="9">
         <v>640794</v>
       </c>
-      <c r="H119" s="12">
+      <c r="H119" s="8">
         <v>347</v>
       </c>
-      <c r="I119" s="14">
+      <c r="I119" s="10">
         <v>5324413.33</v>
       </c>
     </row>
@@ -4770,28 +5210,28 @@
       <c r="A120">
         <v>104</v>
       </c>
-      <c r="B120" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="C120" s="12">
+      <c r="B120" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="8">
         <v>31.15</v>
       </c>
-      <c r="D120" s="12">
+      <c r="D120" s="8">
         <v>31.5</v>
       </c>
-      <c r="E120" s="12">
+      <c r="E120" s="8">
         <v>30.9</v>
       </c>
-      <c r="F120" s="12">
+      <c r="F120" s="8">
         <v>31.35</v>
       </c>
-      <c r="G120" s="13">
+      <c r="G120" s="9">
         <v>700770</v>
       </c>
-      <c r="H120" s="13">
+      <c r="H120" s="9">
         <v>1179</v>
       </c>
-      <c r="I120" s="14">
+      <c r="I120" s="10">
         <v>21845703.649999999</v>
       </c>
     </row>
@@ -4799,28 +5239,28 @@
       <c r="A121">
         <v>33</v>
       </c>
-      <c r="B121" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C121" s="9">
+      <c r="B121" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C121" s="5">
         <v>11.88</v>
       </c>
-      <c r="D121" s="9">
+      <c r="D121" s="5">
         <v>11.88</v>
       </c>
-      <c r="E121" s="9">
+      <c r="E121" s="5">
         <v>11.78</v>
       </c>
-      <c r="F121" s="9">
+      <c r="F121" s="5">
         <v>11.8</v>
       </c>
-      <c r="G121" s="10">
+      <c r="G121" s="6">
         <v>1042133</v>
       </c>
-      <c r="H121" s="9">
+      <c r="H121" s="5">
         <v>803</v>
       </c>
-      <c r="I121" s="11">
+      <c r="I121" s="7">
         <v>12349371.84</v>
       </c>
     </row>
@@ -4828,28 +5268,28 @@
       <c r="A122">
         <v>23</v>
       </c>
-      <c r="B122" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="C122" s="9">
+      <c r="B122" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C122" s="5">
         <v>22.96</v>
       </c>
-      <c r="D122" s="9">
+      <c r="D122" s="5">
         <v>22.98</v>
       </c>
-      <c r="E122" s="9">
+      <c r="E122" s="5">
         <v>22.5</v>
       </c>
-      <c r="F122" s="9">
+      <c r="F122" s="5">
         <v>22.8</v>
       </c>
-      <c r="G122" s="10">
+      <c r="G122" s="6">
         <v>428322</v>
       </c>
-      <c r="H122" s="9">
+      <c r="H122" s="5">
         <v>697</v>
       </c>
-      <c r="I122" s="11">
+      <c r="I122" s="7">
         <v>9734149</v>
       </c>
     </row>
@@ -4857,28 +5297,28 @@
       <c r="A123">
         <v>69</v>
       </c>
-      <c r="B123" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="C123" s="9">
+      <c r="B123" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C123" s="5">
         <v>13.54</v>
       </c>
-      <c r="D123" s="9">
+      <c r="D123" s="5">
         <v>13.9</v>
       </c>
-      <c r="E123" s="9">
+      <c r="E123" s="5">
         <v>13.54</v>
       </c>
-      <c r="F123" s="9">
+      <c r="F123" s="5">
         <v>13.72</v>
       </c>
-      <c r="G123" s="10">
+      <c r="G123" s="6">
         <v>1550878</v>
       </c>
-      <c r="H123" s="10">
+      <c r="H123" s="6">
         <v>1745</v>
       </c>
-      <c r="I123" s="11">
+      <c r="I123" s="7">
         <v>21314697.16</v>
       </c>
     </row>
@@ -4886,28 +5326,28 @@
       <c r="A124">
         <v>129</v>
       </c>
-      <c r="B124" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="C124" s="9">
+      <c r="B124" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C124" s="5">
         <v>36.9</v>
       </c>
-      <c r="D124" s="9">
+      <c r="D124" s="5">
         <v>37.049999999999997</v>
       </c>
-      <c r="E124" s="9">
+      <c r="E124" s="5">
         <v>36.85</v>
       </c>
-      <c r="F124" s="9">
+      <c r="F124" s="5">
         <v>37</v>
       </c>
-      <c r="G124" s="10">
+      <c r="G124" s="6">
         <v>1545425</v>
       </c>
-      <c r="H124" s="10">
+      <c r="H124" s="6">
         <v>1332</v>
       </c>
-      <c r="I124" s="11">
+      <c r="I124" s="7">
         <v>57130207.899999999</v>
       </c>
     </row>
@@ -4915,28 +5355,28 @@
       <c r="A125">
         <v>81</v>
       </c>
-      <c r="B125" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="C125" s="9">
+      <c r="B125" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C125" s="5">
         <v>50.1</v>
       </c>
-      <c r="D125" s="9">
+      <c r="D125" s="5">
         <v>51.4</v>
       </c>
-      <c r="E125" s="9">
+      <c r="E125" s="5">
         <v>49.5</v>
       </c>
-      <c r="F125" s="9">
+      <c r="F125" s="5">
         <v>50.9</v>
       </c>
-      <c r="G125" s="10">
+      <c r="G125" s="6">
         <v>717574</v>
       </c>
-      <c r="H125" s="10">
+      <c r="H125" s="6">
         <v>1557</v>
       </c>
-      <c r="I125" s="11">
+      <c r="I125" s="7">
         <v>36360285.549999997</v>
       </c>
     </row>
@@ -4944,28 +5384,28 @@
       <c r="A126">
         <v>18</v>
       </c>
-      <c r="B126" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="C126" s="12">
+      <c r="B126" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C126" s="8">
         <v>17.100000000000001</v>
       </c>
-      <c r="D126" s="12">
+      <c r="D126" s="8">
         <v>17.46</v>
       </c>
-      <c r="E126" s="12">
+      <c r="E126" s="8">
         <v>17.079999999999998</v>
       </c>
-      <c r="F126" s="12">
+      <c r="F126" s="8">
         <v>17.14</v>
       </c>
-      <c r="G126" s="13">
+      <c r="G126" s="9">
         <v>1789033</v>
       </c>
-      <c r="H126" s="13">
+      <c r="H126" s="9">
         <v>1855</v>
       </c>
-      <c r="I126" s="14">
+      <c r="I126" s="10">
         <v>30892019.379999999</v>
       </c>
     </row>
@@ -4973,28 +5413,28 @@
       <c r="A127">
         <v>35</v>
       </c>
-      <c r="B127" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="C127" s="9">
+      <c r="B127" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="C127" s="5">
         <v>10.220000000000001</v>
       </c>
-      <c r="D127" s="9">
+      <c r="D127" s="5">
         <v>10.24</v>
       </c>
-      <c r="E127" s="9">
+      <c r="E127" s="5">
         <v>10.1</v>
       </c>
-      <c r="F127" s="9">
+      <c r="F127" s="5">
         <v>10.16</v>
       </c>
-      <c r="G127" s="10">
+      <c r="G127" s="6">
         <v>1551011</v>
       </c>
-      <c r="H127" s="9">
+      <c r="H127" s="5">
         <v>924</v>
       </c>
-      <c r="I127" s="11">
+      <c r="I127" s="7">
         <v>15776865.4</v>
       </c>
     </row>
@@ -5002,28 +5442,28 @@
       <c r="A128">
         <v>37</v>
       </c>
-      <c r="B128" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="C128" s="9">
+      <c r="B128" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C128" s="5">
         <v>53.7</v>
       </c>
-      <c r="D128" s="9">
+      <c r="D128" s="5">
         <v>54</v>
       </c>
-      <c r="E128" s="9">
+      <c r="E128" s="5">
         <v>53.5</v>
       </c>
-      <c r="F128" s="9">
+      <c r="F128" s="5">
         <v>53.8</v>
       </c>
-      <c r="G128" s="10">
+      <c r="G128" s="6">
         <v>65975</v>
       </c>
-      <c r="H128" s="9">
+      <c r="H128" s="5">
         <v>189</v>
       </c>
-      <c r="I128" s="11">
+      <c r="I128" s="7">
         <v>3544771.5</v>
       </c>
     </row>
@@ -5031,28 +5471,28 @@
       <c r="A129">
         <v>3</v>
       </c>
-      <c r="B129" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="C129" s="9">
+      <c r="B129" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C129" s="5">
         <v>13.2</v>
       </c>
-      <c r="D129" s="9">
+      <c r="D129" s="5">
         <v>13.22</v>
       </c>
-      <c r="E129" s="9">
+      <c r="E129" s="5">
         <v>13</v>
       </c>
-      <c r="F129" s="9">
+      <c r="F129" s="5">
         <v>13.12</v>
       </c>
-      <c r="G129" s="10">
+      <c r="G129" s="6">
         <v>2135171</v>
       </c>
-      <c r="H129" s="10">
+      <c r="H129" s="6">
         <v>2062</v>
       </c>
-      <c r="I129" s="11">
+      <c r="I129" s="7">
         <v>27998343.100000001</v>
       </c>
     </row>
@@ -5060,28 +5500,28 @@
       <c r="A130">
         <v>14</v>
       </c>
-      <c r="B130" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="C130" s="12">
+      <c r="B130" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C130" s="8">
         <v>26.9</v>
       </c>
-      <c r="D130" s="12">
+      <c r="D130" s="8">
         <v>27</v>
       </c>
-      <c r="E130" s="12">
+      <c r="E130" s="8">
         <v>25.95</v>
       </c>
-      <c r="F130" s="12">
+      <c r="F130" s="8">
         <v>26.5</v>
       </c>
-      <c r="G130" s="13">
+      <c r="G130" s="9">
         <v>438689</v>
       </c>
-      <c r="H130" s="12">
+      <c r="H130" s="8">
         <v>912</v>
       </c>
-      <c r="I130" s="14">
+      <c r="I130" s="10">
         <v>11622327</v>
       </c>
     </row>
@@ -5089,28 +5529,28 @@
       <c r="A131">
         <v>42</v>
       </c>
-      <c r="B131" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C131" s="12">
+      <c r="B131" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C131" s="8">
         <v>66.900000000000006</v>
       </c>
-      <c r="D131" s="12">
+      <c r="D131" s="8">
         <v>67.5</v>
       </c>
-      <c r="E131" s="12">
+      <c r="E131" s="8">
         <v>65.8</v>
       </c>
-      <c r="F131" s="12">
+      <c r="F131" s="8">
         <v>66.2</v>
       </c>
-      <c r="G131" s="13">
+      <c r="G131" s="9">
         <v>226160</v>
       </c>
-      <c r="H131" s="13">
+      <c r="H131" s="9">
         <v>1326</v>
       </c>
-      <c r="I131" s="14">
+      <c r="I131" s="10">
         <v>15041243.5</v>
       </c>
     </row>
@@ -5118,28 +5558,28 @@
       <c r="A132">
         <v>84</v>
       </c>
-      <c r="B132" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="C132" s="12">
+      <c r="B132" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="C132" s="8">
         <v>21.34</v>
       </c>
-      <c r="D132" s="12">
+      <c r="D132" s="8">
         <v>21.6</v>
       </c>
-      <c r="E132" s="12">
+      <c r="E132" s="8">
         <v>21.04</v>
       </c>
-      <c r="F132" s="12">
+      <c r="F132" s="8">
         <v>21.2</v>
       </c>
-      <c r="G132" s="13">
+      <c r="G132" s="9">
         <v>881425</v>
       </c>
-      <c r="H132" s="13">
+      <c r="H132" s="9">
         <v>1343</v>
       </c>
-      <c r="I132" s="14">
+      <c r="I132" s="10">
         <v>18763396.82</v>
       </c>
     </row>
@@ -5147,28 +5587,28 @@
       <c r="A133">
         <v>197</v>
       </c>
-      <c r="B133" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="C133" s="9">
+      <c r="B133" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C133" s="5">
         <v>15.78</v>
       </c>
-      <c r="D133" s="9">
+      <c r="D133" s="5">
         <v>15.94</v>
       </c>
-      <c r="E133" s="9">
+      <c r="E133" s="5">
         <v>15.52</v>
       </c>
-      <c r="F133" s="9">
+      <c r="F133" s="5">
         <v>15.62</v>
       </c>
-      <c r="G133" s="10">
+      <c r="G133" s="6">
         <v>730197</v>
       </c>
-      <c r="H133" s="9">
+      <c r="H133" s="5">
         <v>845</v>
       </c>
-      <c r="I133" s="11">
+      <c r="I133" s="7">
         <v>11470975.800000001</v>
       </c>
     </row>
@@ -5176,28 +5616,28 @@
       <c r="A134">
         <v>119</v>
       </c>
-      <c r="B134" s="7" t="s">
+      <c r="B134" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C134" s="9">
+      <c r="C134" s="5">
         <v>17.059999999999999</v>
       </c>
-      <c r="D134" s="9">
+      <c r="D134" s="5">
         <v>17.12</v>
       </c>
-      <c r="E134" s="9">
+      <c r="E134" s="5">
         <v>16.96</v>
       </c>
-      <c r="F134" s="9">
+      <c r="F134" s="5">
         <v>17.059999999999999</v>
       </c>
-      <c r="G134" s="10">
+      <c r="G134" s="6">
         <v>2012115</v>
       </c>
-      <c r="H134" s="9">
+      <c r="H134" s="5">
         <v>914</v>
       </c>
-      <c r="I134" s="11">
+      <c r="I134" s="7">
         <v>34306838.219999999</v>
       </c>
     </row>
@@ -5205,28 +5645,28 @@
       <c r="A135">
         <v>175</v>
       </c>
-      <c r="B135" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="C135" s="9">
+      <c r="B135" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C135" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="D135" s="9">
+      <c r="D135" s="5">
         <v>8.2200000000000006</v>
       </c>
-      <c r="E135" s="9">
+      <c r="E135" s="5">
         <v>8.1199999999999992</v>
       </c>
-      <c r="F135" s="9">
+      <c r="F135" s="5">
         <v>8.19</v>
       </c>
-      <c r="G135" s="10">
+      <c r="G135" s="6">
         <v>861898</v>
       </c>
-      <c r="H135" s="9">
+      <c r="H135" s="5">
         <v>351</v>
       </c>
-      <c r="I135" s="11">
+      <c r="I135" s="7">
         <v>7049893.2699999996</v>
       </c>
     </row>
@@ -5234,28 +5674,28 @@
       <c r="A136">
         <v>123</v>
       </c>
-      <c r="B136" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C136" s="9">
+      <c r="B136" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C136" s="5">
         <v>24</v>
       </c>
-      <c r="D136" s="9">
+      <c r="D136" s="5">
         <v>24.04</v>
       </c>
-      <c r="E136" s="9">
+      <c r="E136" s="5">
         <v>23.86</v>
       </c>
-      <c r="F136" s="9">
+      <c r="F136" s="5">
         <v>23.98</v>
       </c>
-      <c r="G136" s="10">
+      <c r="G136" s="6">
         <v>524394</v>
       </c>
-      <c r="H136" s="9">
+      <c r="H136" s="5">
         <v>767</v>
       </c>
-      <c r="I136" s="11">
+      <c r="I136" s="7">
         <v>12560419.439999999</v>
       </c>
     </row>
@@ -5263,28 +5703,28 @@
       <c r="A137">
         <v>143</v>
       </c>
-      <c r="B137" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C137" s="9">
+      <c r="B137" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="C137" s="5">
         <v>23.6</v>
       </c>
-      <c r="D137" s="9">
+      <c r="D137" s="5">
         <v>23.8</v>
       </c>
-      <c r="E137" s="9">
+      <c r="E137" s="5">
         <v>23.34</v>
       </c>
-      <c r="F137" s="9">
+      <c r="F137" s="5">
         <v>23.8</v>
       </c>
-      <c r="G137" s="10">
+      <c r="G137" s="6">
         <v>655353</v>
       </c>
-      <c r="H137" s="9">
+      <c r="H137" s="5">
         <v>809</v>
       </c>
-      <c r="I137" s="11">
+      <c r="I137" s="7">
         <v>15495030.82</v>
       </c>
     </row>
@@ -5292,28 +5732,28 @@
       <c r="A138">
         <v>15</v>
       </c>
-      <c r="B138" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C138" s="9">
+      <c r="B138" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C138" s="5">
         <v>88</v>
       </c>
-      <c r="D138" s="9">
+      <c r="D138" s="5">
         <v>88.4</v>
       </c>
-      <c r="E138" s="9">
+      <c r="E138" s="5">
         <v>87.8</v>
       </c>
-      <c r="F138" s="9">
+      <c r="F138" s="5">
         <v>88.2</v>
       </c>
-      <c r="G138" s="10">
+      <c r="G138" s="6">
         <v>1211502</v>
       </c>
-      <c r="H138" s="10">
+      <c r="H138" s="6">
         <v>2432</v>
       </c>
-      <c r="I138" s="11">
+      <c r="I138" s="7">
         <v>106800807.59999999</v>
       </c>
     </row>
@@ -5321,28 +5761,28 @@
       <c r="A139">
         <v>89</v>
       </c>
-      <c r="B139" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="C139" s="9">
+      <c r="B139" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C139" s="5">
         <v>47.1</v>
       </c>
-      <c r="D139" s="9">
+      <c r="D139" s="5">
         <v>47.15</v>
       </c>
-      <c r="E139" s="9">
+      <c r="E139" s="5">
         <v>46.55</v>
       </c>
-      <c r="F139" s="9">
+      <c r="F139" s="5">
         <v>47</v>
       </c>
-      <c r="G139" s="10">
+      <c r="G139" s="6">
         <v>288948</v>
       </c>
-      <c r="H139" s="10">
+      <c r="H139" s="6">
         <v>1012</v>
       </c>
-      <c r="I139" s="11">
+      <c r="I139" s="7">
         <v>13545430.9</v>
       </c>
     </row>
@@ -5350,28 +5790,28 @@
       <c r="A140">
         <v>101</v>
       </c>
-      <c r="B140" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C140" s="9">
+      <c r="B140" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C140" s="5">
         <v>186.2</v>
       </c>
-      <c r="D140" s="9">
+      <c r="D140" s="5">
         <v>187</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="5">
         <v>183.6</v>
       </c>
-      <c r="F140" s="9">
+      <c r="F140" s="5">
         <v>186</v>
       </c>
-      <c r="G140" s="10">
+      <c r="G140" s="6">
         <v>34670</v>
       </c>
-      <c r="H140" s="9">
+      <c r="H140" s="5">
         <v>603</v>
       </c>
-      <c r="I140" s="11">
+      <c r="I140" s="7">
         <v>6419932.7999999998</v>
       </c>
     </row>
@@ -5379,28 +5819,28 @@
       <c r="A141">
         <v>16</v>
       </c>
-      <c r="B141" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C141" s="12">
+      <c r="B141" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C141" s="8">
         <v>85</v>
       </c>
-      <c r="D141" s="12">
+      <c r="D141" s="8">
         <v>85</v>
       </c>
-      <c r="E141" s="12">
+      <c r="E141" s="8">
         <v>83</v>
       </c>
-      <c r="F141" s="12">
+      <c r="F141" s="8">
         <v>84.1</v>
       </c>
-      <c r="G141" s="13">
+      <c r="G141" s="9">
         <v>134889</v>
       </c>
-      <c r="H141" s="12">
+      <c r="H141" s="8">
         <v>506</v>
       </c>
-      <c r="I141" s="14">
+      <c r="I141" s="10">
         <v>11324365.199999999</v>
       </c>
     </row>
@@ -5408,28 +5848,28 @@
       <c r="A142">
         <v>121</v>
       </c>
-      <c r="B142" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="C142" s="9">
+      <c r="B142" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C142" s="5">
         <v>13.66</v>
       </c>
-      <c r="D142" s="9">
+      <c r="D142" s="5">
         <v>14.14</v>
       </c>
-      <c r="E142" s="9">
+      <c r="E142" s="5">
         <v>13.66</v>
       </c>
-      <c r="F142" s="9">
+      <c r="F142" s="5">
         <v>14</v>
       </c>
-      <c r="G142" s="10">
+      <c r="G142" s="6">
         <v>591517</v>
       </c>
-      <c r="H142" s="9">
+      <c r="H142" s="5">
         <v>271</v>
       </c>
-      <c r="I142" s="11">
+      <c r="I142" s="7">
         <v>8160451.1600000001</v>
       </c>
     </row>
@@ -5437,28 +5877,28 @@
       <c r="A143">
         <v>131</v>
       </c>
-      <c r="B143" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="C143" s="9">
+      <c r="B143" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C143" s="5">
         <v>14.06</v>
       </c>
-      <c r="D143" s="9">
+      <c r="D143" s="5">
         <v>14.22</v>
       </c>
-      <c r="E143" s="9">
+      <c r="E143" s="5">
         <v>14</v>
       </c>
-      <c r="F143" s="9">
+      <c r="F143" s="5">
         <v>14.22</v>
       </c>
-      <c r="G143" s="10">
+      <c r="G143" s="6">
         <v>1550917</v>
       </c>
-      <c r="H143" s="10">
+      <c r="H143" s="6">
         <v>1131</v>
       </c>
-      <c r="I143" s="11">
+      <c r="I143" s="7">
         <v>21883226.280000001</v>
       </c>
     </row>
@@ -5466,28 +5906,28 @@
       <c r="A144">
         <v>144</v>
       </c>
-      <c r="B144" s="8" t="s">
+      <c r="B144" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144" s="8">
         <v>12</v>
       </c>
-      <c r="C144" s="12">
-        <v>12</v>
-      </c>
-      <c r="D144" s="12">
+      <c r="D144" s="8">
         <v>12.1</v>
       </c>
-      <c r="E144" s="12">
+      <c r="E144" s="8">
         <v>11.8</v>
       </c>
-      <c r="F144" s="12">
+      <c r="F144" s="8">
         <v>11.96</v>
       </c>
-      <c r="G144" s="13">
+      <c r="G144" s="9">
         <v>744781</v>
       </c>
-      <c r="H144" s="12">
+      <c r="H144" s="8">
         <v>500</v>
       </c>
-      <c r="I144" s="14">
+      <c r="I144" s="10">
         <v>8881107.7599999998</v>
       </c>
     </row>
@@ -5495,28 +5935,28 @@
       <c r="A145">
         <v>140</v>
       </c>
-      <c r="B145" s="8" t="s">
-        <v>42</v>
-      </c>
-      <c r="C145" s="12">
+      <c r="B145" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C145" s="8">
         <v>14.5</v>
       </c>
-      <c r="D145" s="12">
+      <c r="D145" s="8">
         <v>14.74</v>
       </c>
-      <c r="E145" s="12">
+      <c r="E145" s="8">
         <v>14.42</v>
       </c>
-      <c r="F145" s="12">
+      <c r="F145" s="8">
         <v>14.5</v>
       </c>
-      <c r="G145" s="13">
+      <c r="G145" s="9">
         <v>459692</v>
       </c>
-      <c r="H145" s="12">
+      <c r="H145" s="8">
         <v>508</v>
       </c>
-      <c r="I145" s="14">
+      <c r="I145" s="10">
         <v>6687445.6600000001</v>
       </c>
     </row>
@@ -5524,28 +5964,28 @@
       <c r="A146">
         <v>125</v>
       </c>
-      <c r="B146" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C146" s="9">
+      <c r="B146" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C146" s="5">
         <v>25.65</v>
       </c>
-      <c r="D146" s="9">
+      <c r="D146" s="5">
         <v>26.1</v>
       </c>
-      <c r="E146" s="9">
+      <c r="E146" s="5">
         <v>25.6</v>
       </c>
-      <c r="F146" s="9">
+      <c r="F146" s="5">
         <v>26.1</v>
       </c>
-      <c r="G146" s="10">
+      <c r="G146" s="6">
         <v>1104362</v>
       </c>
-      <c r="H146" s="9">
+      <c r="H146" s="5">
         <v>726</v>
       </c>
-      <c r="I146" s="11">
+      <c r="I146" s="7">
         <v>28601127.100000001</v>
       </c>
     </row>
@@ -5553,28 +5993,28 @@
       <c r="A147">
         <v>66</v>
       </c>
-      <c r="B147" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C147" s="12">
+      <c r="B147" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147" s="8">
         <v>16.36</v>
       </c>
-      <c r="D147" s="12">
+      <c r="D147" s="8">
         <v>16.579999999999998</v>
       </c>
-      <c r="E147" s="12">
+      <c r="E147" s="8">
         <v>16.260000000000002</v>
       </c>
-      <c r="F147" s="12">
+      <c r="F147" s="8">
         <v>16.3</v>
       </c>
-      <c r="G147" s="13">
+      <c r="G147" s="9">
         <v>1564608</v>
       </c>
-      <c r="H147" s="13">
+      <c r="H147" s="9">
         <v>1547</v>
       </c>
-      <c r="I147" s="14">
+      <c r="I147" s="10">
         <v>25688049.02</v>
       </c>
     </row>
@@ -5582,28 +6022,28 @@
       <c r="A148">
         <v>1</v>
       </c>
-      <c r="B148" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C148" s="9">
+      <c r="B148" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" s="5">
         <v>48</v>
       </c>
-      <c r="D148" s="9">
+      <c r="D148" s="5">
         <v>48</v>
       </c>
-      <c r="E148" s="9">
+      <c r="E148" s="5">
         <v>46.6</v>
       </c>
-      <c r="F148" s="9">
+      <c r="F148" s="5">
         <v>46.8</v>
       </c>
-      <c r="G148" s="10">
+      <c r="G148" s="6">
         <v>1396348</v>
       </c>
-      <c r="H148" s="10">
+      <c r="H148" s="6">
         <v>3049</v>
       </c>
-      <c r="I148" s="11">
+      <c r="I148" s="7">
         <v>65637220.399999999</v>
       </c>
     </row>
@@ -5611,28 +6051,28 @@
       <c r="A149">
         <v>90</v>
       </c>
-      <c r="B149" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C149" s="12">
+      <c r="B149" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C149" s="8">
         <v>29.25</v>
       </c>
-      <c r="D149" s="12">
+      <c r="D149" s="8">
         <v>30.25</v>
       </c>
-      <c r="E149" s="12">
+      <c r="E149" s="8">
         <v>29.2</v>
       </c>
-      <c r="F149" s="12">
+      <c r="F149" s="8">
         <v>29.4</v>
       </c>
-      <c r="G149" s="13">
+      <c r="G149" s="9">
         <v>1428607</v>
       </c>
-      <c r="H149" s="13">
+      <c r="H149" s="9">
         <v>1946</v>
       </c>
-      <c r="I149" s="14">
+      <c r="I149" s="10">
         <v>42426359.549999997</v>
       </c>
     </row>
@@ -5640,28 +6080,28 @@
       <c r="A150">
         <v>2</v>
       </c>
-      <c r="B150" s="8" t="s">
-        <v>181</v>
-      </c>
-      <c r="C150" s="12">
+      <c r="B150" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C150" s="8">
         <v>33.1</v>
       </c>
-      <c r="D150" s="12">
+      <c r="D150" s="8">
         <v>33.15</v>
       </c>
-      <c r="E150" s="12">
+      <c r="E150" s="8">
         <v>33</v>
       </c>
-      <c r="F150" s="12">
+      <c r="F150" s="8">
         <v>33.15</v>
       </c>
-      <c r="G150" s="13">
+      <c r="G150" s="9">
         <v>4797500</v>
       </c>
-      <c r="H150" s="13">
+      <c r="H150" s="9">
         <v>7737</v>
       </c>
-      <c r="I150" s="14">
+      <c r="I150" s="10">
         <v>158704362</v>
       </c>
     </row>
@@ -5669,28 +6109,28 @@
       <c r="A151">
         <v>53</v>
       </c>
-      <c r="B151" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="C151" s="9">
+      <c r="B151" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C151" s="5">
         <v>14.3</v>
       </c>
-      <c r="D151" s="9">
+      <c r="D151" s="5">
         <v>14.5</v>
       </c>
-      <c r="E151" s="9">
+      <c r="E151" s="5">
         <v>14.2</v>
       </c>
-      <c r="F151" s="9">
+      <c r="F151" s="5">
         <v>14.3</v>
       </c>
-      <c r="G151" s="10">
+      <c r="G151" s="6">
         <v>1477461</v>
       </c>
-      <c r="H151" s="10">
+      <c r="H151" s="6">
         <v>1622</v>
       </c>
-      <c r="I151" s="11">
+      <c r="I151" s="7">
         <v>21216763.84</v>
       </c>
     </row>
@@ -5698,28 +6138,28 @@
       <c r="A152">
         <v>41</v>
       </c>
-      <c r="B152" s="7" t="s">
-        <v>183</v>
-      </c>
-      <c r="C152" s="9">
+      <c r="B152" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C152" s="5">
         <v>56.6</v>
       </c>
-      <c r="D152" s="9">
+      <c r="D152" s="5">
         <v>56.9</v>
       </c>
-      <c r="E152" s="9">
+      <c r="E152" s="5">
         <v>56.1</v>
       </c>
-      <c r="F152" s="9">
+      <c r="F152" s="5">
         <v>56.6</v>
       </c>
-      <c r="G152" s="10">
+      <c r="G152" s="6">
         <v>310334</v>
       </c>
-      <c r="H152" s="10">
+      <c r="H152" s="6">
         <v>1506</v>
       </c>
-      <c r="I152" s="11">
+      <c r="I152" s="7">
         <v>17507635.699999999</v>
       </c>
     </row>
@@ -5727,28 +6167,28 @@
       <c r="A153">
         <v>52</v>
       </c>
-      <c r="B153" s="8" t="s">
-        <v>184</v>
-      </c>
-      <c r="C153" s="12">
+      <c r="B153" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="C153" s="8">
         <v>39</v>
       </c>
-      <c r="D153" s="12">
+      <c r="D153" s="8">
         <v>39.299999999999997</v>
       </c>
-      <c r="E153" s="12">
+      <c r="E153" s="8">
         <v>38.9</v>
       </c>
-      <c r="F153" s="12">
+      <c r="F153" s="8">
         <v>39.1</v>
       </c>
-      <c r="G153" s="13">
+      <c r="G153" s="9">
         <v>655687</v>
       </c>
-      <c r="H153" s="13">
+      <c r="H153" s="9">
         <v>1192</v>
       </c>
-      <c r="I153" s="14">
+      <c r="I153" s="10">
         <v>25631122.300000001</v>
       </c>
     </row>
@@ -5756,28 +6196,28 @@
       <c r="A154">
         <v>174</v>
       </c>
-      <c r="B154" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="C154" s="12">
+      <c r="B154" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="C154" s="8">
         <v>15.54</v>
       </c>
-      <c r="D154" s="12">
+      <c r="D154" s="8">
         <v>15.58</v>
       </c>
-      <c r="E154" s="12">
+      <c r="E154" s="8">
         <v>15.48</v>
       </c>
-      <c r="F154" s="12">
+      <c r="F154" s="8">
         <v>15.48</v>
       </c>
-      <c r="G154" s="13">
+      <c r="G154" s="9">
         <v>4067301</v>
       </c>
-      <c r="H154" s="13">
+      <c r="H154" s="9">
         <v>2299</v>
       </c>
-      <c r="I154" s="14">
+      <c r="I154" s="10">
         <v>63175546.840000004</v>
       </c>
     </row>
@@ -5785,28 +6225,28 @@
       <c r="A155">
         <v>116</v>
       </c>
-      <c r="B155" s="8" t="s">
-        <v>186</v>
-      </c>
-      <c r="C155" s="12">
+      <c r="B155" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C155" s="8">
         <v>36.6</v>
       </c>
-      <c r="D155" s="12">
+      <c r="D155" s="8">
         <v>37.299999999999997</v>
       </c>
-      <c r="E155" s="12">
+      <c r="E155" s="8">
         <v>35.5</v>
       </c>
-      <c r="F155" s="12">
+      <c r="F155" s="8">
         <v>35.85</v>
       </c>
-      <c r="G155" s="13">
+      <c r="G155" s="9">
         <v>584990</v>
       </c>
-      <c r="H155" s="13">
+      <c r="H155" s="9">
         <v>1629</v>
       </c>
-      <c r="I155" s="14">
+      <c r="I155" s="10">
         <v>21160449.850000001</v>
       </c>
     </row>
@@ -5814,28 +6254,28 @@
       <c r="A156">
         <v>31</v>
       </c>
-      <c r="B156" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="C156" s="9">
+      <c r="B156" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="C156" s="5">
         <v>8.6</v>
       </c>
-      <c r="D156" s="9">
+      <c r="D156" s="5">
         <v>8.6199999999999992</v>
       </c>
-      <c r="E156" s="9">
+      <c r="E156" s="5">
         <v>8.4700000000000006</v>
       </c>
-      <c r="F156" s="9">
+      <c r="F156" s="5">
         <v>8.5299999999999994</v>
       </c>
-      <c r="G156" s="10">
+      <c r="G156" s="6">
         <v>4608910</v>
       </c>
-      <c r="H156" s="10">
+      <c r="H156" s="6">
         <v>2467</v>
       </c>
-      <c r="I156" s="11">
+      <c r="I156" s="7">
         <v>39353557.479999997</v>
       </c>
     </row>
@@ -5843,28 +6283,28 @@
       <c r="A157">
         <v>154</v>
       </c>
-      <c r="B157" s="8" t="s">
-        <v>188</v>
-      </c>
-      <c r="C157" s="12">
+      <c r="B157" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C157" s="8">
         <v>9.32</v>
       </c>
-      <c r="D157" s="12">
+      <c r="D157" s="8">
         <v>9.34</v>
       </c>
-      <c r="E157" s="12">
+      <c r="E157" s="8">
         <v>9.26</v>
       </c>
-      <c r="F157" s="12">
+      <c r="F157" s="8">
         <v>9.27</v>
       </c>
-      <c r="G157" s="13">
+      <c r="G157" s="9">
         <v>649356</v>
       </c>
-      <c r="H157" s="12">
+      <c r="H157" s="8">
         <v>501</v>
       </c>
-      <c r="I157" s="14">
+      <c r="I157" s="10">
         <v>6032846.8799999999</v>
       </c>
     </row>
@@ -5872,28 +6312,28 @@
       <c r="A158">
         <v>99</v>
       </c>
-      <c r="B158" s="7" t="s">
-        <v>189</v>
-      </c>
-      <c r="C158" s="9">
+      <c r="B158" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="C158" s="5">
         <v>46.8</v>
       </c>
-      <c r="D158" s="9">
+      <c r="D158" s="5">
         <v>48.6</v>
       </c>
-      <c r="E158" s="9">
+      <c r="E158" s="5">
         <v>46.8</v>
       </c>
-      <c r="F158" s="9">
+      <c r="F158" s="5">
         <v>47.7</v>
       </c>
-      <c r="G158" s="10">
+      <c r="G158" s="6">
         <v>810996</v>
       </c>
-      <c r="H158" s="10">
+      <c r="H158" s="6">
         <v>1358</v>
       </c>
-      <c r="I158" s="11">
+      <c r="I158" s="7">
         <v>38574680</v>
       </c>
     </row>
@@ -5901,28 +6341,28 @@
       <c r="A159">
         <v>187</v>
       </c>
-      <c r="B159" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="C159" s="9">
+      <c r="B159" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C159" s="5">
         <v>8.73</v>
       </c>
-      <c r="D159" s="9">
+      <c r="D159" s="5">
         <v>8.75</v>
       </c>
-      <c r="E159" s="9">
+      <c r="E159" s="5">
         <v>8.73</v>
       </c>
-      <c r="F159" s="9">
+      <c r="F159" s="5">
         <v>8.75</v>
       </c>
-      <c r="G159" s="10">
+      <c r="G159" s="6">
         <v>31626</v>
       </c>
-      <c r="H159" s="9">
+      <c r="H159" s="5">
         <v>136</v>
       </c>
-      <c r="I159" s="11">
+      <c r="I159" s="7">
         <v>275546.51</v>
       </c>
     </row>
@@ -5930,28 +6370,28 @@
       <c r="A160">
         <v>75</v>
       </c>
-      <c r="B160" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="C160" s="9">
+      <c r="B160" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C160" s="5">
         <v>17.079999999999998</v>
       </c>
-      <c r="D160" s="9">
+      <c r="D160" s="5">
         <v>17.12</v>
       </c>
-      <c r="E160" s="9">
+      <c r="E160" s="5">
         <v>16.82</v>
       </c>
-      <c r="F160" s="9">
+      <c r="F160" s="5">
         <v>16.98</v>
       </c>
-      <c r="G160" s="10">
+      <c r="G160" s="6">
         <v>11336953</v>
       </c>
-      <c r="H160" s="10">
+      <c r="H160" s="6">
         <v>6849</v>
       </c>
-      <c r="I160" s="11">
+      <c r="I160" s="7">
         <v>192789095.66</v>
       </c>
     </row>
@@ -5959,28 +6399,28 @@
       <c r="A161">
         <v>107</v>
       </c>
-      <c r="B161" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="C161" s="9">
+      <c r="B161" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C161" s="5">
         <v>23.36</v>
       </c>
-      <c r="D161" s="9">
+      <c r="D161" s="5">
         <v>24.4</v>
       </c>
-      <c r="E161" s="9">
+      <c r="E161" s="5">
         <v>23.34</v>
       </c>
-      <c r="F161" s="9">
+      <c r="F161" s="5">
         <v>24.1</v>
       </c>
-      <c r="G161" s="10">
+      <c r="G161" s="6">
         <v>10334683</v>
       </c>
-      <c r="H161" s="10">
+      <c r="H161" s="6">
         <v>11263</v>
       </c>
-      <c r="I161" s="11">
+      <c r="I161" s="7">
         <v>248025867.44</v>
       </c>
     </row>
@@ -5988,28 +6428,28 @@
       <c r="A162">
         <v>65</v>
       </c>
-      <c r="B162" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="C162" s="9">
+      <c r="B162" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C162" s="5">
         <v>30</v>
       </c>
-      <c r="D162" s="9">
+      <c r="D162" s="5">
         <v>30.1</v>
       </c>
-      <c r="E162" s="9">
+      <c r="E162" s="5">
         <v>29.55</v>
       </c>
-      <c r="F162" s="9">
+      <c r="F162" s="5">
         <v>29.7</v>
       </c>
-      <c r="G162" s="10">
+      <c r="G162" s="6">
         <v>1227244</v>
       </c>
-      <c r="H162" s="10">
+      <c r="H162" s="6">
         <v>2110</v>
       </c>
-      <c r="I162" s="11">
+      <c r="I162" s="7">
         <v>36536088.200000003</v>
       </c>
     </row>
@@ -6017,28 +6457,28 @@
       <c r="A163">
         <v>87</v>
       </c>
-      <c r="B163" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="C163" s="9">
+      <c r="B163" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C163" s="5">
         <v>12.5</v>
       </c>
-      <c r="D163" s="9">
+      <c r="D163" s="5">
         <v>12.5</v>
       </c>
-      <c r="E163" s="9">
+      <c r="E163" s="5">
         <v>12.32</v>
       </c>
-      <c r="F163" s="9">
+      <c r="F163" s="5">
         <v>12.42</v>
       </c>
-      <c r="G163" s="10">
+      <c r="G163" s="6">
         <v>682899</v>
       </c>
-      <c r="H163" s="9">
+      <c r="H163" s="5">
         <v>842</v>
       </c>
-      <c r="I163" s="11">
+      <c r="I163" s="7">
         <v>8474764.2200000007</v>
       </c>
     </row>
@@ -6046,28 +6486,28 @@
       <c r="A164">
         <v>108</v>
       </c>
-      <c r="B164" s="8" t="s">
-        <v>191</v>
-      </c>
-      <c r="C164" s="12">
+      <c r="B164" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C164" s="8">
         <v>74.599999999999994</v>
       </c>
-      <c r="D164" s="12">
+      <c r="D164" s="8">
         <v>79.7</v>
       </c>
-      <c r="E164" s="12">
+      <c r="E164" s="8">
         <v>74.599999999999994</v>
       </c>
-      <c r="F164" s="12">
+      <c r="F164" s="8">
         <v>79.099999999999994</v>
       </c>
-      <c r="G164" s="13">
+      <c r="G164" s="9">
         <v>3397218</v>
       </c>
-      <c r="H164" s="13">
+      <c r="H164" s="9">
         <v>8156</v>
       </c>
-      <c r="I164" s="14">
+      <c r="I164" s="10">
         <v>262521059.09999999</v>
       </c>
     </row>
@@ -6075,28 +6515,28 @@
       <c r="A165">
         <v>70</v>
       </c>
-      <c r="B165" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C165" s="12">
+      <c r="B165" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C165" s="8">
         <v>9.8800000000000008</v>
       </c>
-      <c r="D165" s="12">
+      <c r="D165" s="8">
         <v>9.91</v>
       </c>
-      <c r="E165" s="12">
+      <c r="E165" s="8">
         <v>9.6</v>
       </c>
-      <c r="F165" s="12">
+      <c r="F165" s="8">
         <v>9.76</v>
       </c>
-      <c r="G165" s="13">
+      <c r="G165" s="9">
         <v>2286198</v>
       </c>
-      <c r="H165" s="13">
+      <c r="H165" s="9">
         <v>1836</v>
       </c>
-      <c r="I165" s="14">
+      <c r="I165" s="10">
         <v>22296197.449999999</v>
       </c>
     </row>
@@ -6104,28 +6544,28 @@
       <c r="A166">
         <v>59</v>
       </c>
-      <c r="B166" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C166" s="9">
+      <c r="B166" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C166" s="5">
         <v>61.5</v>
       </c>
-      <c r="D166" s="9">
+      <c r="D166" s="5">
         <v>64</v>
       </c>
-      <c r="E166" s="9">
+      <c r="E166" s="5">
         <v>61.3</v>
       </c>
-      <c r="F166" s="9">
+      <c r="F166" s="5">
         <v>63.1</v>
       </c>
-      <c r="G166" s="10">
+      <c r="G166" s="6">
         <v>1533237</v>
       </c>
-      <c r="H166" s="10">
+      <c r="H166" s="6">
         <v>3814</v>
       </c>
-      <c r="I166" s="11">
+      <c r="I166" s="7">
         <v>96648914.700000003</v>
       </c>
     </row>
@@ -6133,28 +6573,28 @@
       <c r="A167">
         <v>26</v>
       </c>
-      <c r="B167" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="C167" s="12">
+      <c r="B167" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C167" s="8">
         <v>20.5</v>
       </c>
-      <c r="D167" s="12">
+      <c r="D167" s="8">
         <v>20.5</v>
       </c>
-      <c r="E167" s="12">
+      <c r="E167" s="8">
         <v>20.079999999999998</v>
       </c>
-      <c r="F167" s="12">
+      <c r="F167" s="8">
         <v>20.3</v>
       </c>
-      <c r="G167" s="13">
+      <c r="G167" s="9">
         <v>2357298</v>
       </c>
-      <c r="H167" s="13">
+      <c r="H167" s="9">
         <v>1499</v>
       </c>
-      <c r="I167" s="14">
+      <c r="I167" s="10">
         <v>47850344.18</v>
       </c>
     </row>
@@ -6162,28 +6602,28 @@
       <c r="A168">
         <v>29</v>
       </c>
-      <c r="B168" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="C168" s="9">
+      <c r="B168" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C168" s="5">
         <v>15.56</v>
       </c>
-      <c r="D168" s="9">
+      <c r="D168" s="5">
         <v>15.7</v>
       </c>
-      <c r="E168" s="9">
+      <c r="E168" s="5">
         <v>15.34</v>
       </c>
-      <c r="F168" s="9">
+      <c r="F168" s="5">
         <v>15.36</v>
       </c>
-      <c r="G168" s="10">
+      <c r="G168" s="6">
         <v>1976541</v>
       </c>
-      <c r="H168" s="10">
+      <c r="H168" s="6">
         <v>1436</v>
       </c>
-      <c r="I168" s="11">
+      <c r="I168" s="7">
         <v>30602281.379999999</v>
       </c>
     </row>
@@ -6191,28 +6631,28 @@
       <c r="A169">
         <v>64</v>
       </c>
-      <c r="B169" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="C169" s="12">
+      <c r="B169" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C169" s="8">
         <v>22.36</v>
       </c>
-      <c r="D169" s="12">
+      <c r="D169" s="8">
         <v>22.94</v>
       </c>
-      <c r="E169" s="12">
+      <c r="E169" s="8">
         <v>22.28</v>
       </c>
-      <c r="F169" s="12">
+      <c r="F169" s="8">
         <v>22.64</v>
       </c>
-      <c r="G169" s="13">
+      <c r="G169" s="9">
         <v>1456803</v>
       </c>
-      <c r="H169" s="13">
+      <c r="H169" s="9">
         <v>1856</v>
       </c>
-      <c r="I169" s="14">
+      <c r="I169" s="10">
         <v>32937507.940000001</v>
       </c>
     </row>
@@ -6220,28 +6660,28 @@
       <c r="A170">
         <v>162</v>
       </c>
-      <c r="B170" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="C170" s="12">
+      <c r="B170" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C170" s="8">
         <v>14.26</v>
       </c>
-      <c r="D170" s="12">
+      <c r="D170" s="8">
         <v>14.68</v>
       </c>
-      <c r="E170" s="12">
+      <c r="E170" s="8">
         <v>14.16</v>
       </c>
-      <c r="F170" s="12">
+      <c r="F170" s="8">
         <v>14.34</v>
       </c>
-      <c r="G170" s="13">
+      <c r="G170" s="9">
         <v>2300714</v>
       </c>
-      <c r="H170" s="13">
+      <c r="H170" s="9">
         <v>1980</v>
       </c>
-      <c r="I170" s="14">
+      <c r="I170" s="10">
         <v>33061344.579999998</v>
       </c>
     </row>
@@ -6249,28 +6689,28 @@
       <c r="A171">
         <v>43</v>
       </c>
-      <c r="B171" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="C171" s="9">
+      <c r="B171" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C171" s="5">
         <v>64.3</v>
       </c>
-      <c r="D171" s="9">
+      <c r="D171" s="5">
         <v>64.900000000000006</v>
       </c>
-      <c r="E171" s="9">
+      <c r="E171" s="5">
         <v>63.5</v>
       </c>
-      <c r="F171" s="9">
+      <c r="F171" s="5">
         <v>63.7</v>
       </c>
-      <c r="G171" s="10">
+      <c r="G171" s="6">
         <v>353024</v>
       </c>
-      <c r="H171" s="10">
+      <c r="H171" s="6">
         <v>1827</v>
       </c>
-      <c r="I171" s="11">
+      <c r="I171" s="7">
         <v>22601174.100000001</v>
       </c>
     </row>
@@ -6278,28 +6718,28 @@
       <c r="A172">
         <v>118</v>
       </c>
-      <c r="B172" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C172" s="12">
+      <c r="B172" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C172" s="8">
         <v>32.049999999999997</v>
       </c>
-      <c r="D172" s="12">
+      <c r="D172" s="8">
         <v>32.200000000000003</v>
       </c>
-      <c r="E172" s="12">
+      <c r="E172" s="8">
         <v>31.4</v>
       </c>
-      <c r="F172" s="12">
+      <c r="F172" s="8">
         <v>31.6</v>
       </c>
-      <c r="G172" s="13">
+      <c r="G172" s="9">
         <v>1041242</v>
       </c>
-      <c r="H172" s="13">
+      <c r="H172" s="9">
         <v>1577</v>
       </c>
-      <c r="I172" s="14">
+      <c r="I172" s="10">
         <v>33002162.75</v>
       </c>
     </row>
@@ -6307,28 +6747,28 @@
       <c r="A173">
         <v>28</v>
       </c>
-      <c r="B173" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C173" s="12">
+      <c r="B173" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C173" s="8">
         <v>47.75</v>
       </c>
-      <c r="D173" s="12">
+      <c r="D173" s="8">
         <v>50</v>
       </c>
-      <c r="E173" s="12">
+      <c r="E173" s="8">
         <v>47.05</v>
       </c>
-      <c r="F173" s="12">
+      <c r="F173" s="8">
         <v>47.65</v>
       </c>
-      <c r="G173" s="13">
+      <c r="G173" s="9">
         <v>3297110</v>
       </c>
-      <c r="H173" s="13">
+      <c r="H173" s="9">
         <v>7800</v>
       </c>
-      <c r="I173" s="14">
+      <c r="I173" s="10">
         <v>160936639.84999999</v>
       </c>
     </row>
@@ -6336,28 +6776,28 @@
       <c r="A174">
         <v>62</v>
       </c>
-      <c r="B174" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="C174" s="12">
+      <c r="B174" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C174" s="8">
         <v>15.16</v>
       </c>
-      <c r="D174" s="12">
+      <c r="D174" s="8">
         <v>15.28</v>
       </c>
-      <c r="E174" s="12">
+      <c r="E174" s="8">
         <v>14.8</v>
       </c>
-      <c r="F174" s="12">
+      <c r="F174" s="8">
         <v>14.96</v>
       </c>
-      <c r="G174" s="13">
+      <c r="G174" s="9">
         <v>890589</v>
       </c>
-      <c r="H174" s="12">
+      <c r="H174" s="8">
         <v>890</v>
       </c>
-      <c r="I174" s="14">
+      <c r="I174" s="10">
         <v>13427170.4</v>
       </c>
     </row>
@@ -6365,28 +6805,28 @@
       <c r="A175">
         <v>192</v>
       </c>
-      <c r="B175" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="C175" s="12">
+      <c r="B175" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C175" s="8">
         <v>13.26</v>
       </c>
-      <c r="D175" s="12">
+      <c r="D175" s="8">
         <v>13.26</v>
       </c>
-      <c r="E175" s="12">
+      <c r="E175" s="8">
         <v>13.14</v>
       </c>
-      <c r="F175" s="12">
+      <c r="F175" s="8">
         <v>13.16</v>
       </c>
-      <c r="G175" s="13">
+      <c r="G175" s="9">
         <v>800931</v>
       </c>
-      <c r="H175" s="12">
+      <c r="H175" s="8">
         <v>501</v>
       </c>
-      <c r="I175" s="14">
+      <c r="I175" s="10">
         <v>10565721.42</v>
       </c>
     </row>
@@ -6394,28 +6834,28 @@
       <c r="A176">
         <v>86</v>
       </c>
-      <c r="B176" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C176" s="12">
+      <c r="B176" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C176" s="8">
         <v>59.1</v>
       </c>
-      <c r="D176" s="12">
+      <c r="D176" s="8">
         <v>60.3</v>
       </c>
-      <c r="E176" s="12">
+      <c r="E176" s="8">
         <v>59</v>
       </c>
-      <c r="F176" s="12">
+      <c r="F176" s="8">
         <v>60</v>
       </c>
-      <c r="G176" s="13">
+      <c r="G176" s="9">
         <v>665607</v>
       </c>
-      <c r="H176" s="13">
+      <c r="H176" s="9">
         <v>1344</v>
       </c>
-      <c r="I176" s="14">
+      <c r="I176" s="10">
         <v>39747586.700000003</v>
       </c>
     </row>
@@ -6423,28 +6863,28 @@
       <c r="A177">
         <v>12</v>
       </c>
-      <c r="B177" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C177" s="12">
+      <c r="B177" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C177" s="8">
         <v>17.739999999999998</v>
       </c>
-      <c r="D177" s="12">
+      <c r="D177" s="8">
         <v>17.88</v>
       </c>
-      <c r="E177" s="12">
+      <c r="E177" s="8">
         <v>17.64</v>
       </c>
-      <c r="F177" s="12">
+      <c r="F177" s="8">
         <v>17.68</v>
       </c>
-      <c r="G177" s="13">
+      <c r="G177" s="9">
         <v>625365</v>
       </c>
-      <c r="H177" s="12">
+      <c r="H177" s="8">
         <v>879</v>
       </c>
-      <c r="I177" s="14">
+      <c r="I177" s="10">
         <v>11113537.939999999</v>
       </c>
     </row>
@@ -6452,28 +6892,28 @@
       <c r="A178">
         <v>169</v>
       </c>
-      <c r="B178" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C178" s="9">
+      <c r="B178" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C178" s="5">
         <v>96.5</v>
       </c>
-      <c r="D178" s="9">
+      <c r="D178" s="5">
         <v>97</v>
       </c>
-      <c r="E178" s="9">
+      <c r="E178" s="5">
         <v>96.4</v>
       </c>
-      <c r="F178" s="9">
+      <c r="F178" s="5">
         <v>96.7</v>
       </c>
-      <c r="G178" s="10">
+      <c r="G178" s="6">
         <v>516150</v>
       </c>
-      <c r="H178" s="10">
+      <c r="H178" s="6">
         <v>1095</v>
       </c>
-      <c r="I178" s="11">
+      <c r="I178" s="7">
         <v>49917281.5</v>
       </c>
     </row>
@@ -6481,28 +6921,28 @@
       <c r="A179">
         <v>117</v>
       </c>
-      <c r="B179" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="C179" s="9">
+      <c r="B179" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="C179" s="5">
         <v>87.7</v>
       </c>
-      <c r="D179" s="9">
+      <c r="D179" s="5">
         <v>87.9</v>
       </c>
-      <c r="E179" s="9">
+      <c r="E179" s="5">
         <v>87.2</v>
       </c>
-      <c r="F179" s="9">
+      <c r="F179" s="5">
         <v>87.7</v>
       </c>
-      <c r="G179" s="10">
+      <c r="G179" s="6">
         <v>203953</v>
       </c>
-      <c r="H179" s="9">
+      <c r="H179" s="5">
         <v>710</v>
       </c>
-      <c r="I179" s="11">
+      <c r="I179" s="7">
         <v>17866552.199999999</v>
       </c>
     </row>
@@ -6510,28 +6950,28 @@
       <c r="A180">
         <v>57</v>
       </c>
-      <c r="B180" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="C180" s="9">
+      <c r="B180" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C180" s="5">
         <v>47.9</v>
       </c>
-      <c r="D180" s="9">
+      <c r="D180" s="5">
         <v>48.65</v>
       </c>
-      <c r="E180" s="9">
+      <c r="E180" s="5">
         <v>47.5</v>
       </c>
-      <c r="F180" s="9">
+      <c r="F180" s="5">
         <v>48.35</v>
       </c>
-      <c r="G180" s="10">
+      <c r="G180" s="6">
         <v>306110</v>
       </c>
-      <c r="H180" s="9">
+      <c r="H180" s="5">
         <v>903</v>
       </c>
-      <c r="I180" s="11">
+      <c r="I180" s="7">
         <v>14722593.85</v>
       </c>
     </row>
@@ -6539,28 +6979,28 @@
       <c r="A181">
         <v>188</v>
       </c>
-      <c r="B181" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="C181" s="12">
+      <c r="B181" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C181" s="8">
         <v>6.36</v>
       </c>
-      <c r="D181" s="12">
+      <c r="D181" s="8">
         <v>6.43</v>
       </c>
-      <c r="E181" s="12">
+      <c r="E181" s="8">
         <v>6.36</v>
       </c>
-      <c r="F181" s="12">
+      <c r="F181" s="8">
         <v>6.4</v>
       </c>
-      <c r="G181" s="13">
+      <c r="G181" s="9">
         <v>1084096</v>
       </c>
-      <c r="H181" s="12">
+      <c r="H181" s="8">
         <v>730</v>
       </c>
-      <c r="I181" s="14">
+      <c r="I181" s="10">
         <v>6940107.4000000004</v>
       </c>
     </row>
@@ -6568,28 +7008,28 @@
       <c r="A182">
         <v>106</v>
       </c>
-      <c r="B182" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="C182" s="12">
+      <c r="B182" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C182" s="8">
         <v>21.46</v>
       </c>
-      <c r="D182" s="12">
+      <c r="D182" s="8">
         <v>22.38</v>
       </c>
-      <c r="E182" s="12">
+      <c r="E182" s="8">
         <v>20.96</v>
       </c>
-      <c r="F182" s="12">
+      <c r="F182" s="8">
         <v>22.24</v>
       </c>
-      <c r="G182" s="13">
+      <c r="G182" s="9">
         <v>5391830</v>
       </c>
-      <c r="H182" s="13">
+      <c r="H182" s="9">
         <v>5920</v>
       </c>
-      <c r="I182" s="14">
+      <c r="I182" s="10">
         <v>116972668.22</v>
       </c>
     </row>
@@ -6597,28 +7037,28 @@
       <c r="A183">
         <v>193</v>
       </c>
-      <c r="B183" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="C183" s="9">
+      <c r="B183" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="C183" s="5">
         <v>29.6</v>
       </c>
-      <c r="D183" s="9">
+      <c r="D183" s="5">
         <v>29.6</v>
       </c>
-      <c r="E183" s="9">
+      <c r="E183" s="5">
         <v>29.4</v>
       </c>
-      <c r="F183" s="9">
+      <c r="F183" s="5">
         <v>29.6</v>
       </c>
-      <c r="G183" s="10">
+      <c r="G183" s="6">
         <v>67968</v>
       </c>
-      <c r="H183" s="9">
+      <c r="H183" s="5">
         <v>225</v>
       </c>
-      <c r="I183" s="11">
+      <c r="I183" s="7">
         <v>2005241.5</v>
       </c>
     </row>
@@ -6626,28 +7066,28 @@
       <c r="A184">
         <v>6</v>
       </c>
-      <c r="B184" s="8" t="s">
-        <v>65</v>
-      </c>
-      <c r="C184" s="12">
+      <c r="B184" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C184" s="8">
         <v>9.4499999999999993</v>
       </c>
-      <c r="D184" s="12">
+      <c r="D184" s="8">
         <v>9.4499999999999993</v>
       </c>
-      <c r="E184" s="12">
+      <c r="E184" s="8">
         <v>9.3000000000000007</v>
       </c>
-      <c r="F184" s="12">
+      <c r="F184" s="8">
         <v>9.35</v>
       </c>
-      <c r="G184" s="13">
+      <c r="G184" s="9">
         <v>1736400</v>
       </c>
-      <c r="H184" s="13">
+      <c r="H184" s="9">
         <v>1416</v>
       </c>
-      <c r="I184" s="14">
+      <c r="I184" s="10">
         <v>16272735.1</v>
       </c>
     </row>
@@ -6655,28 +7095,28 @@
       <c r="A185">
         <v>178</v>
       </c>
-      <c r="B185" s="8" t="s">
-        <v>197</v>
-      </c>
-      <c r="C185" s="12">
+      <c r="B185" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="C185" s="8">
         <v>12.18</v>
       </c>
-      <c r="D185" s="12">
+      <c r="D185" s="8">
         <v>12.88</v>
       </c>
-      <c r="E185" s="12">
+      <c r="E185" s="8">
         <v>12.18</v>
       </c>
-      <c r="F185" s="12">
+      <c r="F185" s="8">
         <v>12.44</v>
       </c>
-      <c r="G185" s="13">
+      <c r="G185" s="9">
         <v>469502</v>
       </c>
-      <c r="H185" s="12">
+      <c r="H185" s="8">
         <v>466</v>
       </c>
-      <c r="I185" s="14">
+      <c r="I185" s="10">
         <v>5863479.7199999997</v>
       </c>
     </row>
@@ -6684,28 +7124,28 @@
       <c r="A186">
         <v>85</v>
       </c>
-      <c r="B186" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C186" s="9">
+      <c r="B186" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C186" s="5">
         <v>23.4</v>
       </c>
-      <c r="D186" s="9">
+      <c r="D186" s="5">
         <v>24.06</v>
       </c>
-      <c r="E186" s="9">
+      <c r="E186" s="5">
         <v>23.2</v>
       </c>
-      <c r="F186" s="9">
+      <c r="F186" s="5">
         <v>23.52</v>
       </c>
-      <c r="G186" s="10">
+      <c r="G186" s="6">
         <v>1375051</v>
       </c>
-      <c r="H186" s="10">
+      <c r="H186" s="6">
         <v>2165</v>
       </c>
-      <c r="I186" s="11">
+      <c r="I186" s="7">
         <v>32626359.899999999</v>
       </c>
     </row>
@@ -6713,28 +7153,28 @@
       <c r="A187">
         <v>17</v>
       </c>
-      <c r="B187" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="C187" s="9">
+      <c r="B187" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C187" s="5">
         <v>10.88</v>
       </c>
-      <c r="D187" s="9">
+      <c r="D187" s="5">
         <v>10.92</v>
       </c>
-      <c r="E187" s="9">
+      <c r="E187" s="5">
         <v>10.76</v>
       </c>
-      <c r="F187" s="9">
+      <c r="F187" s="5">
         <v>10.82</v>
       </c>
-      <c r="G187" s="10">
+      <c r="G187" s="6">
         <v>3613592</v>
       </c>
-      <c r="H187" s="10">
+      <c r="H187" s="6">
         <v>1726</v>
       </c>
-      <c r="I187" s="11">
+      <c r="I187" s="7">
         <v>39218875.659999996</v>
       </c>
     </row>
@@ -6742,28 +7182,28 @@
       <c r="A188">
         <v>135</v>
       </c>
-      <c r="B188" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="C188" s="9">
+      <c r="B188" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C188" s="5">
         <v>85.4</v>
       </c>
-      <c r="D188" s="9">
+      <c r="D188" s="5">
         <v>85.4</v>
       </c>
-      <c r="E188" s="9">
+      <c r="E188" s="5">
         <v>84.4</v>
       </c>
-      <c r="F188" s="9">
+      <c r="F188" s="5">
         <v>85</v>
       </c>
-      <c r="G188" s="10">
+      <c r="G188" s="6">
         <v>184226</v>
       </c>
-      <c r="H188" s="9">
+      <c r="H188" s="5">
         <v>407</v>
       </c>
-      <c r="I188" s="11">
+      <c r="I188" s="7">
         <v>15659955.699999999</v>
       </c>
     </row>
@@ -6771,28 +7211,28 @@
       <c r="A189">
         <v>46</v>
       </c>
-      <c r="B189" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="C189" s="12">
+      <c r="B189" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="C189" s="8">
         <v>13.36</v>
       </c>
-      <c r="D189" s="12">
+      <c r="D189" s="8">
         <v>13.36</v>
       </c>
-      <c r="E189" s="12">
+      <c r="E189" s="8">
         <v>13.16</v>
       </c>
-      <c r="F189" s="12">
+      <c r="F189" s="8">
         <v>13.32</v>
       </c>
-      <c r="G189" s="13">
+      <c r="G189" s="9">
         <v>1299799</v>
       </c>
-      <c r="H189" s="13">
+      <c r="H189" s="9">
         <v>1160</v>
       </c>
-      <c r="I189" s="14">
+      <c r="I189" s="10">
         <v>17224830.420000002</v>
       </c>
     </row>
@@ -6800,28 +7240,28 @@
       <c r="A190">
         <v>79</v>
       </c>
-      <c r="B190" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="C190" s="9">
+      <c r="B190" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C190" s="5">
         <v>31.1</v>
       </c>
-      <c r="D190" s="9">
+      <c r="D190" s="5">
         <v>31.9</v>
       </c>
-      <c r="E190" s="9">
+      <c r="E190" s="5">
         <v>31</v>
       </c>
-      <c r="F190" s="9">
+      <c r="F190" s="5">
         <v>31.35</v>
       </c>
-      <c r="G190" s="10">
+      <c r="G190" s="6">
         <v>1424835</v>
       </c>
-      <c r="H190" s="10">
+      <c r="H190" s="6">
         <v>2185</v>
       </c>
-      <c r="I190" s="11">
+      <c r="I190" s="7">
         <v>44816136.100000001</v>
       </c>
     </row>
@@ -6829,28 +7269,28 @@
       <c r="A191">
         <v>98</v>
       </c>
-      <c r="B191" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="C191" s="12">
+      <c r="B191" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="C191" s="8">
         <v>0</v>
       </c>
-      <c r="D191" s="12">
+      <c r="D191" s="8">
         <v>0</v>
       </c>
-      <c r="E191" s="12">
+      <c r="E191" s="8">
         <v>0</v>
       </c>
-      <c r="F191" s="12">
+      <c r="F191" s="8">
         <v>17.2</v>
       </c>
-      <c r="G191" s="12">
+      <c r="G191" s="8">
         <v>0</v>
       </c>
-      <c r="H191" s="12">
+      <c r="H191" s="8">
         <v>0</v>
       </c>
-      <c r="I191" s="12">
+      <c r="I191" s="8">
         <v>0</v>
       </c>
     </row>
@@ -6858,28 +7298,28 @@
       <c r="A192">
         <v>36</v>
       </c>
-      <c r="B192" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C192" s="12">
+      <c r="B192" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="C192" s="8">
         <v>24.9</v>
       </c>
-      <c r="D192" s="12">
+      <c r="D192" s="8">
         <v>25</v>
       </c>
-      <c r="E192" s="12">
+      <c r="E192" s="8">
         <v>24.42</v>
       </c>
-      <c r="F192" s="12">
+      <c r="F192" s="8">
         <v>24.62</v>
       </c>
-      <c r="G192" s="13">
+      <c r="G192" s="9">
         <v>988799</v>
       </c>
-      <c r="H192" s="13">
+      <c r="H192" s="9">
         <v>1486</v>
       </c>
-      <c r="I192" s="14">
+      <c r="I192" s="10">
         <v>24428753.780000001</v>
       </c>
     </row>
@@ -6887,28 +7327,28 @@
       <c r="A193">
         <v>153</v>
       </c>
-      <c r="B193" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="C193" s="9">
+      <c r="B193" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C193" s="5">
         <v>10.14</v>
       </c>
-      <c r="D193" s="9">
+      <c r="D193" s="5">
         <v>10.16</v>
       </c>
-      <c r="E193" s="9">
+      <c r="E193" s="5">
         <v>10</v>
       </c>
-      <c r="F193" s="9">
+      <c r="F193" s="5">
         <v>10.1</v>
       </c>
-      <c r="G193" s="10">
+      <c r="G193" s="6">
         <v>613126</v>
       </c>
-      <c r="H193" s="9">
+      <c r="H193" s="5">
         <v>474</v>
       </c>
-      <c r="I193" s="11">
+      <c r="I193" s="7">
         <v>6187794.3399999999</v>
       </c>
     </row>
@@ -6916,28 +7356,28 @@
       <c r="A194">
         <v>145</v>
       </c>
-      <c r="B194" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="C194" s="9">
+      <c r="B194" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C194" s="5">
         <v>0</v>
       </c>
-      <c r="D194" s="9">
+      <c r="D194" s="5">
         <v>0</v>
       </c>
-      <c r="E194" s="9">
+      <c r="E194" s="5">
         <v>0</v>
       </c>
-      <c r="F194" s="9">
+      <c r="F194" s="5">
         <v>9.5</v>
       </c>
-      <c r="G194" s="9">
+      <c r="G194" s="5">
         <v>0</v>
       </c>
-      <c r="H194" s="9">
+      <c r="H194" s="5">
         <v>0</v>
       </c>
-      <c r="I194" s="9">
+      <c r="I194" s="5">
         <v>0</v>
       </c>
     </row>
@@ -6945,28 +7385,28 @@
       <c r="A195">
         <v>100</v>
       </c>
-      <c r="B195" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="C195" s="12">
+      <c r="B195" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="C195" s="8">
         <v>59.8</v>
       </c>
-      <c r="D195" s="12">
+      <c r="D195" s="8">
         <v>60.3</v>
       </c>
-      <c r="E195" s="12">
+      <c r="E195" s="8">
         <v>58.7</v>
       </c>
-      <c r="F195" s="12">
+      <c r="F195" s="8">
         <v>59.3</v>
       </c>
-      <c r="G195" s="13">
+      <c r="G195" s="9">
         <v>746764</v>
       </c>
-      <c r="H195" s="13">
+      <c r="H195" s="9">
         <v>2025</v>
       </c>
-      <c r="I195" s="14">
+      <c r="I195" s="10">
         <v>44427274.700000003</v>
       </c>
     </row>
@@ -6974,28 +7414,28 @@
       <c r="A196">
         <v>141</v>
       </c>
-      <c r="B196" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="C196" s="9">
+      <c r="B196" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C196" s="5">
         <v>18.66</v>
       </c>
-      <c r="D196" s="9">
+      <c r="D196" s="5">
         <v>18.8</v>
       </c>
-      <c r="E196" s="9">
+      <c r="E196" s="5">
         <v>18.399999999999999</v>
       </c>
-      <c r="F196" s="9">
+      <c r="F196" s="5">
         <v>18.440000000000001</v>
       </c>
-      <c r="G196" s="10">
+      <c r="G196" s="6">
         <v>789397</v>
       </c>
-      <c r="H196" s="9">
+      <c r="H196" s="5">
         <v>705</v>
       </c>
-      <c r="I196" s="11">
+      <c r="I196" s="7">
         <v>14675990.199999999</v>
       </c>
     </row>
@@ -7003,28 +7443,28 @@
       <c r="A197">
         <v>163</v>
       </c>
-      <c r="B197" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="C197" s="9">
+      <c r="B197" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C197" s="5">
         <v>34.049999999999997</v>
       </c>
-      <c r="D197" s="9">
+      <c r="D197" s="5">
         <v>34.049999999999997</v>
       </c>
-      <c r="E197" s="9">
+      <c r="E197" s="5">
         <v>33</v>
       </c>
-      <c r="F197" s="9">
+      <c r="F197" s="5">
         <v>33.1</v>
       </c>
-      <c r="G197" s="10">
+      <c r="G197" s="6">
         <v>900320</v>
       </c>
-      <c r="H197" s="10">
+      <c r="H197" s="6">
         <v>2256</v>
       </c>
-      <c r="I197" s="11">
+      <c r="I197" s="7">
         <v>30049406.300000001</v>
       </c>
     </row>
@@ -7032,28 +7472,28 @@
       <c r="A198">
         <v>27</v>
       </c>
-      <c r="B198" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="C198" s="9">
+      <c r="B198" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C198" s="5">
         <v>53.3</v>
       </c>
-      <c r="D198" s="9">
+      <c r="D198" s="5">
         <v>54</v>
       </c>
-      <c r="E198" s="9">
+      <c r="E198" s="5">
         <v>53.3</v>
       </c>
-      <c r="F198" s="9">
+      <c r="F198" s="5">
         <v>54</v>
       </c>
-      <c r="G198" s="10">
+      <c r="G198" s="6">
         <v>696849</v>
       </c>
-      <c r="H198" s="10">
+      <c r="H198" s="6">
         <v>1108</v>
       </c>
-      <c r="I198" s="11">
+      <c r="I198" s="7">
         <v>37481098.100000001</v>
       </c>
     </row>
@@ -7061,28 +7501,28 @@
       <c r="A199">
         <v>44</v>
       </c>
-      <c r="B199" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C199" s="12">
+      <c r="B199" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="C199" s="8">
         <v>32.049999999999997</v>
       </c>
-      <c r="D199" s="12">
+      <c r="D199" s="8">
         <v>32.1</v>
       </c>
-      <c r="E199" s="12">
+      <c r="E199" s="8">
         <v>31.65</v>
       </c>
-      <c r="F199" s="12">
+      <c r="F199" s="8">
         <v>31.75</v>
       </c>
-      <c r="G199" s="13">
+      <c r="G199" s="9">
         <v>460847</v>
       </c>
-      <c r="H199" s="13">
+      <c r="H199" s="9">
         <v>1029</v>
       </c>
-      <c r="I199" s="14">
+      <c r="I199" s="10">
         <v>14695290</v>
       </c>
     </row>
@@ -7090,28 +7530,28 @@
       <c r="A200">
         <v>40</v>
       </c>
-      <c r="B200" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C200" s="12">
+      <c r="B200" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C200" s="8">
         <v>24.28</v>
       </c>
-      <c r="D200" s="12">
+      <c r="D200" s="8">
         <v>24.28</v>
       </c>
-      <c r="E200" s="12">
+      <c r="E200" s="8">
         <v>24.1</v>
       </c>
-      <c r="F200" s="12">
+      <c r="F200" s="8">
         <v>24.16</v>
       </c>
-      <c r="G200" s="13">
+      <c r="G200" s="9">
         <v>431463</v>
       </c>
-      <c r="H200" s="12">
+      <c r="H200" s="8">
         <v>523</v>
       </c>
-      <c r="I200" s="14">
+      <c r="I200" s="10">
         <v>10428739.16</v>
       </c>
     </row>
@@ -7119,28 +7559,28 @@
       <c r="A201">
         <v>171</v>
       </c>
-      <c r="B201" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="C201" s="9">
+      <c r="B201" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="C201" s="5">
         <v>11.62</v>
       </c>
-      <c r="D201" s="9">
+      <c r="D201" s="5">
         <v>11.78</v>
       </c>
-      <c r="E201" s="9">
+      <c r="E201" s="5">
         <v>11.58</v>
       </c>
-      <c r="F201" s="9">
+      <c r="F201" s="5">
         <v>11.66</v>
       </c>
-      <c r="G201" s="10">
+      <c r="G201" s="6">
         <v>6534079</v>
       </c>
-      <c r="H201" s="10">
+      <c r="H201" s="6">
         <v>3217</v>
       </c>
-      <c r="I201" s="11">
+      <c r="I201" s="7">
         <v>76374115.079999998</v>
       </c>
     </row>
@@ -7148,28 +7588,28 @@
       <c r="A202">
         <v>25</v>
       </c>
-      <c r="B202" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="C202" s="9">
+      <c r="B202" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C202" s="5">
         <v>17.059999999999999</v>
       </c>
-      <c r="D202" s="9">
+      <c r="D202" s="5">
         <v>17.16</v>
       </c>
-      <c r="E202" s="9">
+      <c r="E202" s="5">
         <v>16.88</v>
       </c>
-      <c r="F202" s="9">
+      <c r="F202" s="5">
         <v>17.02</v>
       </c>
-      <c r="G202" s="10">
+      <c r="G202" s="6">
         <v>427378</v>
       </c>
-      <c r="H202" s="9">
+      <c r="H202" s="5">
         <v>511</v>
       </c>
-      <c r="I202" s="11">
+      <c r="I202" s="7">
         <v>7277996.8200000003</v>
       </c>
     </row>
@@ -7177,28 +7617,28 @@
       <c r="A203">
         <v>19</v>
       </c>
-      <c r="B203" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C203" s="9">
+      <c r="B203" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C203" s="5">
         <v>22.48</v>
       </c>
-      <c r="D203" s="9">
+      <c r="D203" s="5">
         <v>24.34</v>
       </c>
-      <c r="E203" s="9">
+      <c r="E203" s="5">
         <v>22.48</v>
       </c>
-      <c r="F203" s="9">
+      <c r="F203" s="5">
         <v>24.34</v>
       </c>
-      <c r="G203" s="10">
+      <c r="G203" s="6">
         <v>5142772</v>
       </c>
-      <c r="H203" s="10">
+      <c r="H203" s="6">
         <v>5099</v>
       </c>
-      <c r="I203" s="11">
+      <c r="I203" s="7">
         <v>121108236.76000001</v>
       </c>
     </row>
